--- a/doc/table/装备基础表.xlsx
+++ b/doc/table/装备基础表.xlsx
@@ -655,7 +655,29 @@
     <cellStyle name="常规" xfId="0" builtinId="0"/>
     <cellStyle name="常规 2" xfId="1"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="3">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -959,7 +981,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="Q4" sqref="Q4"/>
+      <selection pane="bottomLeft" activeCell="F12" sqref="F12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -2523,6 +2545,16 @@
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
+  <conditionalFormatting sqref="C8:Q55">
+    <cfRule type="cellIs" dxfId="2" priority="2" operator="equal">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A2:Q123">
+    <cfRule type="cellIs" dxfId="0" priority="1" operator="equal">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>

--- a/doc/table/装备基础表.xlsx
+++ b/doc/table/装备基础表.xlsx
@@ -655,7 +655,133 @@
     <cellStyle name="常规" xfId="0" builtinId="0"/>
     <cellStyle name="常规 2" xfId="1"/>
   </cellStyles>
-  <dxfs count="3">
+  <dxfs count="21">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <fill>
         <patternFill>
@@ -980,8 +1106,8 @@
   <dimension ref="A1:Q55"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F12" sqref="F12"/>
+      <pane ySplit="1" topLeftCell="A41" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="L7" sqref="L7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1052,21 +1178,45 @@
       <c r="B2" s="9" t="s">
         <v>76</v>
       </c>
-      <c r="C2" s="8"/>
+      <c r="C2" s="8">
+        <v>0</v>
+      </c>
       <c r="D2" s="8">
-        <v>10</v>
-      </c>
-      <c r="E2" s="8"/>
-      <c r="F2" s="8"/>
-      <c r="G2" s="8"/>
-      <c r="H2" s="8"/>
-      <c r="I2" s="8"/>
-      <c r="J2" s="8"/>
-      <c r="K2" s="8"/>
-      <c r="L2" s="8"/>
-      <c r="M2" s="8"/>
-      <c r="N2" s="8"/>
-      <c r="O2" s="8"/>
+        <v>8</v>
+      </c>
+      <c r="E2" s="8">
+        <v>0</v>
+      </c>
+      <c r="F2" s="8">
+        <v>0</v>
+      </c>
+      <c r="G2" s="8">
+        <v>0</v>
+      </c>
+      <c r="H2" s="8">
+        <v>0</v>
+      </c>
+      <c r="I2" s="8">
+        <v>0</v>
+      </c>
+      <c r="J2" s="8">
+        <v>0</v>
+      </c>
+      <c r="K2" s="8">
+        <v>0</v>
+      </c>
+      <c r="L2" s="8">
+        <v>0</v>
+      </c>
+      <c r="M2" s="8">
+        <v>0</v>
+      </c>
+      <c r="N2" s="8">
+        <v>0</v>
+      </c>
+      <c r="O2" s="8">
+        <v>0</v>
+      </c>
       <c r="P2" s="8"/>
       <c r="Q2" s="8"/>
     </row>
@@ -1077,21 +1227,45 @@
       <c r="B3" s="9" t="s">
         <v>77</v>
       </c>
-      <c r="C3" s="8"/>
+      <c r="C3" s="8">
+        <v>0</v>
+      </c>
       <c r="D3" s="8">
-        <v>20</v>
-      </c>
-      <c r="E3" s="8"/>
-      <c r="F3" s="8"/>
-      <c r="G3" s="8"/>
-      <c r="H3" s="8"/>
-      <c r="I3" s="8"/>
-      <c r="J3" s="8"/>
-      <c r="K3" s="8"/>
-      <c r="L3" s="8"/>
-      <c r="M3" s="8"/>
-      <c r="N3" s="8"/>
-      <c r="O3" s="8"/>
+        <v>40</v>
+      </c>
+      <c r="E3" s="8">
+        <v>0</v>
+      </c>
+      <c r="F3" s="8">
+        <v>0</v>
+      </c>
+      <c r="G3" s="8">
+        <v>0</v>
+      </c>
+      <c r="H3" s="8">
+        <v>0</v>
+      </c>
+      <c r="I3" s="8">
+        <v>0</v>
+      </c>
+      <c r="J3" s="8">
+        <v>0</v>
+      </c>
+      <c r="K3" s="8">
+        <v>0</v>
+      </c>
+      <c r="L3" s="8">
+        <v>0</v>
+      </c>
+      <c r="M3" s="8">
+        <v>0</v>
+      </c>
+      <c r="N3" s="8">
+        <v>0</v>
+      </c>
+      <c r="O3" s="8">
+        <v>0</v>
+      </c>
       <c r="P3" s="8"/>
       <c r="Q3" s="8"/>
     </row>
@@ -1102,21 +1276,45 @@
       <c r="B4" s="9" t="s">
         <v>78</v>
       </c>
-      <c r="C4" s="8"/>
+      <c r="C4" s="8">
+        <v>0</v>
+      </c>
       <c r="D4" s="8">
-        <v>40</v>
-      </c>
-      <c r="E4" s="8"/>
-      <c r="F4" s="8"/>
-      <c r="G4" s="8"/>
-      <c r="H4" s="8"/>
-      <c r="I4" s="8"/>
-      <c r="J4" s="8"/>
-      <c r="K4" s="8"/>
-      <c r="L4" s="8"/>
-      <c r="M4" s="8"/>
-      <c r="N4" s="8"/>
-      <c r="O4" s="8"/>
+        <v>72</v>
+      </c>
+      <c r="E4" s="8">
+        <v>0</v>
+      </c>
+      <c r="F4" s="8">
+        <v>0</v>
+      </c>
+      <c r="G4" s="8">
+        <v>0</v>
+      </c>
+      <c r="H4" s="8">
+        <v>0</v>
+      </c>
+      <c r="I4" s="8">
+        <v>0</v>
+      </c>
+      <c r="J4" s="8">
+        <v>0</v>
+      </c>
+      <c r="K4" s="8">
+        <v>0</v>
+      </c>
+      <c r="L4" s="8">
+        <v>0</v>
+      </c>
+      <c r="M4" s="8">
+        <v>0</v>
+      </c>
+      <c r="N4" s="8">
+        <v>0</v>
+      </c>
+      <c r="O4" s="8">
+        <v>0</v>
+      </c>
       <c r="P4" s="8"/>
       <c r="Q4" s="8"/>
     </row>
@@ -1127,21 +1325,45 @@
       <c r="B5" s="9" t="s">
         <v>79</v>
       </c>
-      <c r="C5" s="8"/>
+      <c r="C5" s="8">
+        <v>0</v>
+      </c>
       <c r="D5" s="8">
-        <v>80</v>
-      </c>
-      <c r="E5" s="8"/>
-      <c r="F5" s="8"/>
-      <c r="G5" s="8"/>
-      <c r="H5" s="8"/>
-      <c r="I5" s="8"/>
-      <c r="J5" s="8"/>
-      <c r="K5" s="8"/>
-      <c r="L5" s="8"/>
-      <c r="M5" s="8"/>
-      <c r="N5" s="8"/>
-      <c r="O5" s="8"/>
+        <v>104</v>
+      </c>
+      <c r="E5" s="8">
+        <v>0</v>
+      </c>
+      <c r="F5" s="8">
+        <v>0</v>
+      </c>
+      <c r="G5" s="8">
+        <v>0</v>
+      </c>
+      <c r="H5" s="8">
+        <v>0</v>
+      </c>
+      <c r="I5" s="8">
+        <v>0</v>
+      </c>
+      <c r="J5" s="8">
+        <v>0</v>
+      </c>
+      <c r="K5" s="8">
+        <v>0</v>
+      </c>
+      <c r="L5" s="8">
+        <v>0</v>
+      </c>
+      <c r="M5" s="8">
+        <v>0</v>
+      </c>
+      <c r="N5" s="8">
+        <v>0</v>
+      </c>
+      <c r="O5" s="8">
+        <v>0</v>
+      </c>
       <c r="P5" s="8"/>
       <c r="Q5" s="8"/>
     </row>
@@ -1152,21 +1374,45 @@
       <c r="B6" s="9" t="s">
         <v>80</v>
       </c>
-      <c r="C6" s="8"/>
+      <c r="C6" s="8">
+        <v>0</v>
+      </c>
       <c r="D6" s="8">
-        <v>160</v>
-      </c>
-      <c r="E6" s="8"/>
-      <c r="F6" s="8"/>
-      <c r="G6" s="8"/>
-      <c r="H6" s="8"/>
-      <c r="I6" s="8"/>
-      <c r="J6" s="8"/>
-      <c r="K6" s="8"/>
-      <c r="L6" s="8"/>
-      <c r="M6" s="8"/>
-      <c r="N6" s="8"/>
-      <c r="O6" s="8"/>
+        <v>136</v>
+      </c>
+      <c r="E6" s="8">
+        <v>0</v>
+      </c>
+      <c r="F6" s="8">
+        <v>0</v>
+      </c>
+      <c r="G6" s="8">
+        <v>0</v>
+      </c>
+      <c r="H6" s="8">
+        <v>0</v>
+      </c>
+      <c r="I6" s="8">
+        <v>0</v>
+      </c>
+      <c r="J6" s="8">
+        <v>0</v>
+      </c>
+      <c r="K6" s="8">
+        <v>0</v>
+      </c>
+      <c r="L6" s="8">
+        <v>0</v>
+      </c>
+      <c r="M6" s="8">
+        <v>0</v>
+      </c>
+      <c r="N6" s="8">
+        <v>0</v>
+      </c>
+      <c r="O6" s="8">
+        <v>0</v>
+      </c>
       <c r="P6" s="8"/>
       <c r="Q6" s="8"/>
     </row>
@@ -1177,21 +1423,45 @@
       <c r="B7" s="9" t="s">
         <v>66</v>
       </c>
-      <c r="C7" s="8"/>
+      <c r="C7" s="8">
+        <v>0</v>
+      </c>
       <c r="D7" s="8">
-        <v>320</v>
-      </c>
-      <c r="E7" s="8"/>
-      <c r="F7" s="8"/>
-      <c r="G7" s="8"/>
-      <c r="H7" s="8"/>
-      <c r="I7" s="8"/>
-      <c r="J7" s="8"/>
-      <c r="K7" s="8"/>
-      <c r="L7" s="8"/>
-      <c r="M7" s="8"/>
-      <c r="N7" s="8"/>
-      <c r="O7" s="8"/>
+        <v>168</v>
+      </c>
+      <c r="E7" s="8">
+        <v>0</v>
+      </c>
+      <c r="F7" s="8">
+        <v>0</v>
+      </c>
+      <c r="G7" s="8">
+        <v>0</v>
+      </c>
+      <c r="H7" s="8">
+        <v>0</v>
+      </c>
+      <c r="I7" s="8">
+        <v>0</v>
+      </c>
+      <c r="J7" s="8">
+        <v>0</v>
+      </c>
+      <c r="K7" s="8">
+        <v>0</v>
+      </c>
+      <c r="L7" s="8">
+        <v>0</v>
+      </c>
+      <c r="M7" s="8">
+        <v>0</v>
+      </c>
+      <c r="N7" s="8">
+        <v>0</v>
+      </c>
+      <c r="O7" s="8">
+        <v>0</v>
+      </c>
       <c r="P7" s="8"/>
       <c r="Q7" s="8"/>
     </row>
@@ -1202,21 +1472,45 @@
       <c r="B8" s="9" t="s">
         <v>81</v>
       </c>
-      <c r="C8" s="8"/>
-      <c r="D8" s="8"/>
+      <c r="C8" s="8">
+        <v>0</v>
+      </c>
+      <c r="D8" s="8">
+        <v>0</v>
+      </c>
       <c r="E8" s="8">
-        <v>10</v>
-      </c>
-      <c r="F8" s="8"/>
-      <c r="G8" s="8"/>
-      <c r="H8" s="8"/>
-      <c r="I8" s="8"/>
-      <c r="J8" s="8"/>
-      <c r="K8" s="8"/>
-      <c r="L8" s="8"/>
-      <c r="M8" s="8"/>
-      <c r="N8" s="8"/>
-      <c r="O8" s="8"/>
+        <v>8</v>
+      </c>
+      <c r="F8" s="8">
+        <v>0</v>
+      </c>
+      <c r="G8" s="8">
+        <v>0</v>
+      </c>
+      <c r="H8" s="8">
+        <v>0</v>
+      </c>
+      <c r="I8" s="8">
+        <v>0</v>
+      </c>
+      <c r="J8" s="8">
+        <v>0</v>
+      </c>
+      <c r="K8" s="8">
+        <v>0</v>
+      </c>
+      <c r="L8" s="8">
+        <v>0</v>
+      </c>
+      <c r="M8" s="8">
+        <v>0</v>
+      </c>
+      <c r="N8" s="8">
+        <v>0</v>
+      </c>
+      <c r="O8" s="8">
+        <v>0</v>
+      </c>
       <c r="P8" s="8"/>
       <c r="Q8" s="8"/>
     </row>
@@ -1227,21 +1521,45 @@
       <c r="B9" s="9" t="s">
         <v>82</v>
       </c>
-      <c r="C9" s="8"/>
-      <c r="D9" s="8"/>
+      <c r="C9" s="8">
+        <v>0</v>
+      </c>
+      <c r="D9" s="8">
+        <v>0</v>
+      </c>
       <c r="E9" s="8">
-        <v>20</v>
-      </c>
-      <c r="F9" s="8"/>
-      <c r="G9" s="8"/>
-      <c r="H9" s="8"/>
-      <c r="I9" s="8"/>
-      <c r="J9" s="8"/>
-      <c r="K9" s="8"/>
-      <c r="L9" s="8"/>
-      <c r="M9" s="8"/>
-      <c r="N9" s="8"/>
-      <c r="O9" s="8"/>
+        <v>40</v>
+      </c>
+      <c r="F9" s="8">
+        <v>0</v>
+      </c>
+      <c r="G9" s="8">
+        <v>0</v>
+      </c>
+      <c r="H9" s="8">
+        <v>0</v>
+      </c>
+      <c r="I9" s="8">
+        <v>0</v>
+      </c>
+      <c r="J9" s="8">
+        <v>0</v>
+      </c>
+      <c r="K9" s="8">
+        <v>0</v>
+      </c>
+      <c r="L9" s="8">
+        <v>0</v>
+      </c>
+      <c r="M9" s="8">
+        <v>0</v>
+      </c>
+      <c r="N9" s="8">
+        <v>0</v>
+      </c>
+      <c r="O9" s="8">
+        <v>0</v>
+      </c>
       <c r="P9" s="8"/>
       <c r="Q9" s="8"/>
     </row>
@@ -1252,21 +1570,45 @@
       <c r="B10" s="9" t="s">
         <v>83</v>
       </c>
-      <c r="C10" s="8"/>
-      <c r="D10" s="8"/>
+      <c r="C10" s="8">
+        <v>0</v>
+      </c>
+      <c r="D10" s="8">
+        <v>0</v>
+      </c>
       <c r="E10" s="8">
-        <v>40</v>
-      </c>
-      <c r="F10" s="8"/>
-      <c r="G10" s="8"/>
-      <c r="H10" s="8"/>
-      <c r="I10" s="8"/>
-      <c r="J10" s="8"/>
-      <c r="K10" s="8"/>
-      <c r="L10" s="8"/>
-      <c r="M10" s="8"/>
-      <c r="N10" s="8"/>
-      <c r="O10" s="8"/>
+        <v>72</v>
+      </c>
+      <c r="F10" s="8">
+        <v>0</v>
+      </c>
+      <c r="G10" s="8">
+        <v>0</v>
+      </c>
+      <c r="H10" s="8">
+        <v>0</v>
+      </c>
+      <c r="I10" s="8">
+        <v>0</v>
+      </c>
+      <c r="J10" s="8">
+        <v>0</v>
+      </c>
+      <c r="K10" s="8">
+        <v>0</v>
+      </c>
+      <c r="L10" s="8">
+        <v>0</v>
+      </c>
+      <c r="M10" s="8">
+        <v>0</v>
+      </c>
+      <c r="N10" s="8">
+        <v>0</v>
+      </c>
+      <c r="O10" s="8">
+        <v>0</v>
+      </c>
       <c r="P10" s="8"/>
       <c r="Q10" s="8"/>
     </row>
@@ -1277,21 +1619,45 @@
       <c r="B11" s="9" t="s">
         <v>84</v>
       </c>
-      <c r="C11" s="8"/>
-      <c r="D11" s="8"/>
+      <c r="C11" s="8">
+        <v>0</v>
+      </c>
+      <c r="D11" s="8">
+        <v>0</v>
+      </c>
       <c r="E11" s="8">
-        <v>80</v>
-      </c>
-      <c r="F11" s="8"/>
-      <c r="G11" s="8"/>
-      <c r="H11" s="8"/>
-      <c r="I11" s="8"/>
-      <c r="J11" s="8"/>
-      <c r="K11" s="8"/>
-      <c r="L11" s="8"/>
-      <c r="M11" s="8"/>
-      <c r="N11" s="8"/>
-      <c r="O11" s="8"/>
+        <v>104</v>
+      </c>
+      <c r="F11" s="8">
+        <v>0</v>
+      </c>
+      <c r="G11" s="8">
+        <v>0</v>
+      </c>
+      <c r="H11" s="8">
+        <v>0</v>
+      </c>
+      <c r="I11" s="8">
+        <v>0</v>
+      </c>
+      <c r="J11" s="8">
+        <v>0</v>
+      </c>
+      <c r="K11" s="8">
+        <v>0</v>
+      </c>
+      <c r="L11" s="8">
+        <v>0</v>
+      </c>
+      <c r="M11" s="8">
+        <v>0</v>
+      </c>
+      <c r="N11" s="8">
+        <v>0</v>
+      </c>
+      <c r="O11" s="8">
+        <v>0</v>
+      </c>
       <c r="P11" s="8"/>
       <c r="Q11" s="8"/>
     </row>
@@ -1302,21 +1668,45 @@
       <c r="B12" s="9" t="s">
         <v>85</v>
       </c>
-      <c r="C12" s="8"/>
-      <c r="D12" s="8"/>
+      <c r="C12" s="8">
+        <v>0</v>
+      </c>
+      <c r="D12" s="8">
+        <v>0</v>
+      </c>
       <c r="E12" s="8">
-        <v>160</v>
-      </c>
-      <c r="F12" s="8"/>
-      <c r="G12" s="8"/>
-      <c r="H12" s="8"/>
-      <c r="I12" s="8"/>
-      <c r="J12" s="8"/>
-      <c r="K12" s="8"/>
-      <c r="L12" s="8"/>
-      <c r="M12" s="8"/>
-      <c r="N12" s="8"/>
-      <c r="O12" s="8"/>
+        <v>136</v>
+      </c>
+      <c r="F12" s="8">
+        <v>0</v>
+      </c>
+      <c r="G12" s="8">
+        <v>0</v>
+      </c>
+      <c r="H12" s="8">
+        <v>0</v>
+      </c>
+      <c r="I12" s="8">
+        <v>0</v>
+      </c>
+      <c r="J12" s="8">
+        <v>0</v>
+      </c>
+      <c r="K12" s="8">
+        <v>0</v>
+      </c>
+      <c r="L12" s="8">
+        <v>0</v>
+      </c>
+      <c r="M12" s="8">
+        <v>0</v>
+      </c>
+      <c r="N12" s="8">
+        <v>0</v>
+      </c>
+      <c r="O12" s="8">
+        <v>0</v>
+      </c>
       <c r="P12" s="8"/>
       <c r="Q12" s="8"/>
     </row>
@@ -1327,21 +1717,45 @@
       <c r="B13" s="9" t="s">
         <v>67</v>
       </c>
-      <c r="C13" s="8"/>
-      <c r="D13" s="8"/>
+      <c r="C13" s="8">
+        <v>0</v>
+      </c>
+      <c r="D13" s="8">
+        <v>0</v>
+      </c>
       <c r="E13" s="8">
-        <v>320</v>
-      </c>
-      <c r="F13" s="8"/>
-      <c r="G13" s="8"/>
-      <c r="H13" s="8"/>
-      <c r="I13" s="8"/>
-      <c r="J13" s="8"/>
-      <c r="K13" s="8"/>
-      <c r="L13" s="8"/>
-      <c r="M13" s="8"/>
-      <c r="N13" s="8"/>
-      <c r="O13" s="8"/>
+        <v>168</v>
+      </c>
+      <c r="F13" s="8">
+        <v>0</v>
+      </c>
+      <c r="G13" s="8">
+        <v>0</v>
+      </c>
+      <c r="H13" s="8">
+        <v>0</v>
+      </c>
+      <c r="I13" s="8">
+        <v>0</v>
+      </c>
+      <c r="J13" s="8">
+        <v>0</v>
+      </c>
+      <c r="K13" s="8">
+        <v>0</v>
+      </c>
+      <c r="L13" s="8">
+        <v>0</v>
+      </c>
+      <c r="M13" s="8">
+        <v>0</v>
+      </c>
+      <c r="N13" s="8">
+        <v>0</v>
+      </c>
+      <c r="O13" s="8">
+        <v>0</v>
+      </c>
       <c r="P13" s="8"/>
       <c r="Q13" s="8"/>
     </row>
@@ -1352,21 +1766,45 @@
       <c r="B14" s="9" t="s">
         <v>86</v>
       </c>
-      <c r="C14" s="8"/>
-      <c r="D14" s="8"/>
+      <c r="C14" s="8">
+        <v>0</v>
+      </c>
+      <c r="D14" s="8">
+        <v>0</v>
+      </c>
       <c r="E14" s="8">
-        <v>10</v>
-      </c>
-      <c r="F14" s="8"/>
-      <c r="G14" s="8"/>
-      <c r="H14" s="8"/>
-      <c r="I14" s="8"/>
-      <c r="J14" s="8"/>
-      <c r="K14" s="8"/>
-      <c r="L14" s="8"/>
-      <c r="M14" s="8"/>
-      <c r="N14" s="8"/>
-      <c r="O14" s="8"/>
+        <v>8</v>
+      </c>
+      <c r="F14" s="8">
+        <v>0</v>
+      </c>
+      <c r="G14" s="8">
+        <v>0</v>
+      </c>
+      <c r="H14" s="8">
+        <v>0</v>
+      </c>
+      <c r="I14" s="8">
+        <v>0</v>
+      </c>
+      <c r="J14" s="8">
+        <v>0</v>
+      </c>
+      <c r="K14" s="8">
+        <v>0</v>
+      </c>
+      <c r="L14" s="8">
+        <v>0</v>
+      </c>
+      <c r="M14" s="8">
+        <v>0</v>
+      </c>
+      <c r="N14" s="8">
+        <v>0</v>
+      </c>
+      <c r="O14" s="8">
+        <v>0</v>
+      </c>
       <c r="P14" s="8"/>
       <c r="Q14" s="8"/>
     </row>
@@ -1377,21 +1815,45 @@
       <c r="B15" s="9" t="s">
         <v>87</v>
       </c>
-      <c r="C15" s="8"/>
-      <c r="D15" s="8"/>
+      <c r="C15" s="8">
+        <v>0</v>
+      </c>
+      <c r="D15" s="8">
+        <v>0</v>
+      </c>
       <c r="E15" s="8">
-        <v>20</v>
-      </c>
-      <c r="F15" s="8"/>
-      <c r="G15" s="8"/>
-      <c r="H15" s="8"/>
-      <c r="I15" s="8"/>
-      <c r="J15" s="8"/>
-      <c r="K15" s="8"/>
-      <c r="L15" s="8"/>
-      <c r="M15" s="8"/>
-      <c r="N15" s="8"/>
-      <c r="O15" s="8"/>
+        <v>40</v>
+      </c>
+      <c r="F15" s="8">
+        <v>0</v>
+      </c>
+      <c r="G15" s="8">
+        <v>0</v>
+      </c>
+      <c r="H15" s="8">
+        <v>0</v>
+      </c>
+      <c r="I15" s="8">
+        <v>0</v>
+      </c>
+      <c r="J15" s="8">
+        <v>0</v>
+      </c>
+      <c r="K15" s="8">
+        <v>0</v>
+      </c>
+      <c r="L15" s="8">
+        <v>0</v>
+      </c>
+      <c r="M15" s="8">
+        <v>0</v>
+      </c>
+      <c r="N15" s="8">
+        <v>0</v>
+      </c>
+      <c r="O15" s="8">
+        <v>0</v>
+      </c>
       <c r="P15" s="8"/>
       <c r="Q15" s="8"/>
     </row>
@@ -1402,21 +1864,45 @@
       <c r="B16" s="9" t="s">
         <v>88</v>
       </c>
-      <c r="C16" s="8"/>
-      <c r="D16" s="8"/>
+      <c r="C16" s="8">
+        <v>0</v>
+      </c>
+      <c r="D16" s="8">
+        <v>0</v>
+      </c>
       <c r="E16" s="8">
-        <v>40</v>
-      </c>
-      <c r="F16" s="8"/>
-      <c r="G16" s="8"/>
-      <c r="H16" s="8"/>
-      <c r="I16" s="8"/>
-      <c r="J16" s="8"/>
-      <c r="K16" s="8"/>
-      <c r="L16" s="8"/>
-      <c r="M16" s="8"/>
-      <c r="N16" s="8"/>
-      <c r="O16" s="8"/>
+        <v>72</v>
+      </c>
+      <c r="F16" s="8">
+        <v>0</v>
+      </c>
+      <c r="G16" s="8">
+        <v>0</v>
+      </c>
+      <c r="H16" s="8">
+        <v>0</v>
+      </c>
+      <c r="I16" s="8">
+        <v>0</v>
+      </c>
+      <c r="J16" s="8">
+        <v>0</v>
+      </c>
+      <c r="K16" s="8">
+        <v>0</v>
+      </c>
+      <c r="L16" s="8">
+        <v>0</v>
+      </c>
+      <c r="M16" s="8">
+        <v>0</v>
+      </c>
+      <c r="N16" s="8">
+        <v>0</v>
+      </c>
+      <c r="O16" s="8">
+        <v>0</v>
+      </c>
       <c r="P16" s="8"/>
       <c r="Q16" s="8"/>
     </row>
@@ -1427,21 +1913,45 @@
       <c r="B17" s="9" t="s">
         <v>89</v>
       </c>
-      <c r="C17" s="8"/>
-      <c r="D17" s="8"/>
+      <c r="C17" s="8">
+        <v>0</v>
+      </c>
+      <c r="D17" s="8">
+        <v>0</v>
+      </c>
       <c r="E17" s="8">
-        <v>80</v>
-      </c>
-      <c r="F17" s="8"/>
-      <c r="G17" s="8"/>
-      <c r="H17" s="8"/>
-      <c r="I17" s="8"/>
-      <c r="J17" s="8"/>
-      <c r="K17" s="8"/>
-      <c r="L17" s="8"/>
-      <c r="M17" s="8"/>
-      <c r="N17" s="8"/>
-      <c r="O17" s="8"/>
+        <v>104</v>
+      </c>
+      <c r="F17" s="8">
+        <v>0</v>
+      </c>
+      <c r="G17" s="8">
+        <v>0</v>
+      </c>
+      <c r="H17" s="8">
+        <v>0</v>
+      </c>
+      <c r="I17" s="8">
+        <v>0</v>
+      </c>
+      <c r="J17" s="8">
+        <v>0</v>
+      </c>
+      <c r="K17" s="8">
+        <v>0</v>
+      </c>
+      <c r="L17" s="8">
+        <v>0</v>
+      </c>
+      <c r="M17" s="8">
+        <v>0</v>
+      </c>
+      <c r="N17" s="8">
+        <v>0</v>
+      </c>
+      <c r="O17" s="8">
+        <v>0</v>
+      </c>
       <c r="P17" s="8"/>
       <c r="Q17" s="8"/>
     </row>
@@ -1452,21 +1962,45 @@
       <c r="B18" s="9" t="s">
         <v>90</v>
       </c>
-      <c r="C18" s="8"/>
-      <c r="D18" s="8"/>
+      <c r="C18" s="8">
+        <v>0</v>
+      </c>
+      <c r="D18" s="8">
+        <v>0</v>
+      </c>
       <c r="E18" s="8">
-        <v>160</v>
-      </c>
-      <c r="F18" s="8"/>
-      <c r="G18" s="8"/>
-      <c r="H18" s="8"/>
-      <c r="I18" s="8"/>
-      <c r="J18" s="8"/>
-      <c r="K18" s="8"/>
-      <c r="L18" s="8"/>
-      <c r="M18" s="8"/>
-      <c r="N18" s="8"/>
-      <c r="O18" s="8"/>
+        <v>136</v>
+      </c>
+      <c r="F18" s="8">
+        <v>0</v>
+      </c>
+      <c r="G18" s="8">
+        <v>0</v>
+      </c>
+      <c r="H18" s="8">
+        <v>0</v>
+      </c>
+      <c r="I18" s="8">
+        <v>0</v>
+      </c>
+      <c r="J18" s="8">
+        <v>0</v>
+      </c>
+      <c r="K18" s="8">
+        <v>0</v>
+      </c>
+      <c r="L18" s="8">
+        <v>0</v>
+      </c>
+      <c r="M18" s="8">
+        <v>0</v>
+      </c>
+      <c r="N18" s="8">
+        <v>0</v>
+      </c>
+      <c r="O18" s="8">
+        <v>0</v>
+      </c>
       <c r="P18" s="8"/>
       <c r="Q18" s="8"/>
     </row>
@@ -1477,21 +2011,45 @@
       <c r="B19" s="9" t="s">
         <v>68</v>
       </c>
-      <c r="C19" s="8"/>
-      <c r="D19" s="8"/>
+      <c r="C19" s="8">
+        <v>0</v>
+      </c>
+      <c r="D19" s="8">
+        <v>0</v>
+      </c>
       <c r="E19" s="8">
-        <v>320</v>
-      </c>
-      <c r="F19" s="8"/>
-      <c r="G19" s="8"/>
-      <c r="H19" s="8"/>
-      <c r="I19" s="8"/>
-      <c r="J19" s="8"/>
-      <c r="K19" s="8"/>
-      <c r="L19" s="8"/>
-      <c r="M19" s="8"/>
-      <c r="N19" s="8"/>
-      <c r="O19" s="8"/>
+        <v>168</v>
+      </c>
+      <c r="F19" s="8">
+        <v>0</v>
+      </c>
+      <c r="G19" s="8">
+        <v>0</v>
+      </c>
+      <c r="H19" s="8">
+        <v>0</v>
+      </c>
+      <c r="I19" s="8">
+        <v>0</v>
+      </c>
+      <c r="J19" s="8">
+        <v>0</v>
+      </c>
+      <c r="K19" s="8">
+        <v>0</v>
+      </c>
+      <c r="L19" s="8">
+        <v>0</v>
+      </c>
+      <c r="M19" s="8">
+        <v>0</v>
+      </c>
+      <c r="N19" s="8">
+        <v>0</v>
+      </c>
+      <c r="O19" s="8">
+        <v>0</v>
+      </c>
       <c r="P19" s="8"/>
       <c r="Q19" s="8"/>
     </row>
@@ -1502,25 +2060,45 @@
       <c r="B20" s="9" t="s">
         <v>91</v>
       </c>
-      <c r="C20" s="8"/>
-      <c r="D20" s="8"/>
-      <c r="E20" s="8"/>
+      <c r="C20" s="8">
+        <v>0</v>
+      </c>
+      <c r="D20" s="8">
+        <v>0</v>
+      </c>
+      <c r="E20" s="8">
+        <v>0</v>
+      </c>
       <c r="F20" s="8">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="G20" s="8">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="H20" s="8">
-        <v>100</v>
-      </c>
-      <c r="I20" s="8"/>
-      <c r="J20" s="8"/>
-      <c r="K20" s="8"/>
-      <c r="L20" s="8"/>
-      <c r="M20" s="8"/>
-      <c r="N20" s="8"/>
-      <c r="O20" s="8"/>
+        <v>94</v>
+      </c>
+      <c r="I20" s="8">
+        <v>0</v>
+      </c>
+      <c r="J20" s="8">
+        <v>0</v>
+      </c>
+      <c r="K20" s="8">
+        <v>0</v>
+      </c>
+      <c r="L20" s="8">
+        <v>0</v>
+      </c>
+      <c r="M20" s="8">
+        <v>0</v>
+      </c>
+      <c r="N20" s="8">
+        <v>0</v>
+      </c>
+      <c r="O20" s="8">
+        <v>0</v>
+      </c>
       <c r="P20" s="8"/>
       <c r="Q20" s="8"/>
     </row>
@@ -1531,25 +2109,45 @@
       <c r="B21" s="9" t="s">
         <v>92</v>
       </c>
-      <c r="C21" s="8"/>
-      <c r="D21" s="8"/>
-      <c r="E21" s="8"/>
+      <c r="C21" s="8">
+        <v>0</v>
+      </c>
+      <c r="D21" s="8">
+        <v>0</v>
+      </c>
+      <c r="E21" s="8">
+        <v>0</v>
+      </c>
       <c r="F21" s="8">
-        <v>4</v>
+        <v>26</v>
       </c>
       <c r="G21" s="8">
-        <v>4</v>
+        <v>16</v>
       </c>
       <c r="H21" s="8">
-        <v>200</v>
-      </c>
-      <c r="I21" s="8"/>
-      <c r="J21" s="8"/>
-      <c r="K21" s="8"/>
-      <c r="L21" s="8"/>
-      <c r="M21" s="8"/>
-      <c r="N21" s="8"/>
-      <c r="O21" s="8"/>
+        <v>158</v>
+      </c>
+      <c r="I21" s="8">
+        <v>0</v>
+      </c>
+      <c r="J21" s="8">
+        <v>0</v>
+      </c>
+      <c r="K21" s="8">
+        <v>0</v>
+      </c>
+      <c r="L21" s="8">
+        <v>0</v>
+      </c>
+      <c r="M21" s="8">
+        <v>0</v>
+      </c>
+      <c r="N21" s="8">
+        <v>0</v>
+      </c>
+      <c r="O21" s="8">
+        <v>0</v>
+      </c>
       <c r="P21" s="8"/>
       <c r="Q21" s="8"/>
     </row>
@@ -1560,25 +2158,45 @@
       <c r="B22" s="9" t="s">
         <v>93</v>
       </c>
-      <c r="C22" s="8"/>
-      <c r="D22" s="8"/>
-      <c r="E22" s="8"/>
+      <c r="C22" s="8">
+        <v>0</v>
+      </c>
+      <c r="D22" s="8">
+        <v>0</v>
+      </c>
+      <c r="E22" s="8">
+        <v>0</v>
+      </c>
       <c r="F22" s="8">
-        <v>8</v>
+        <v>46</v>
       </c>
       <c r="G22" s="8">
-        <v>8</v>
+        <v>26</v>
       </c>
       <c r="H22" s="8">
-        <v>300</v>
-      </c>
-      <c r="I22" s="8"/>
-      <c r="J22" s="8"/>
-      <c r="K22" s="8"/>
-      <c r="L22" s="8"/>
-      <c r="M22" s="8"/>
-      <c r="N22" s="8"/>
-      <c r="O22" s="8"/>
+        <v>222</v>
+      </c>
+      <c r="I22" s="8">
+        <v>0</v>
+      </c>
+      <c r="J22" s="8">
+        <v>0</v>
+      </c>
+      <c r="K22" s="8">
+        <v>0</v>
+      </c>
+      <c r="L22" s="8">
+        <v>0</v>
+      </c>
+      <c r="M22" s="8">
+        <v>0</v>
+      </c>
+      <c r="N22" s="8">
+        <v>0</v>
+      </c>
+      <c r="O22" s="8">
+        <v>0</v>
+      </c>
       <c r="P22" s="8"/>
       <c r="Q22" s="8"/>
     </row>
@@ -1589,25 +2207,45 @@
       <c r="B23" s="9" t="s">
         <v>94</v>
       </c>
-      <c r="C23" s="8"/>
-      <c r="D23" s="8"/>
-      <c r="E23" s="8"/>
+      <c r="C23" s="8">
+        <v>0</v>
+      </c>
+      <c r="D23" s="8">
+        <v>0</v>
+      </c>
+      <c r="E23" s="8">
+        <v>0</v>
+      </c>
       <c r="F23" s="8">
-        <v>16</v>
+        <v>66</v>
       </c>
       <c r="G23" s="8">
-        <v>16</v>
+        <v>36</v>
       </c>
       <c r="H23" s="8">
-        <v>400</v>
-      </c>
-      <c r="I23" s="8"/>
-      <c r="J23" s="8"/>
-      <c r="K23" s="8"/>
-      <c r="L23" s="8"/>
-      <c r="M23" s="8"/>
-      <c r="N23" s="8"/>
-      <c r="O23" s="8"/>
+        <v>286</v>
+      </c>
+      <c r="I23" s="8">
+        <v>0</v>
+      </c>
+      <c r="J23" s="8">
+        <v>0</v>
+      </c>
+      <c r="K23" s="8">
+        <v>0</v>
+      </c>
+      <c r="L23" s="8">
+        <v>0</v>
+      </c>
+      <c r="M23" s="8">
+        <v>0</v>
+      </c>
+      <c r="N23" s="8">
+        <v>0</v>
+      </c>
+      <c r="O23" s="8">
+        <v>0</v>
+      </c>
       <c r="P23" s="8"/>
       <c r="Q23" s="8"/>
     </row>
@@ -1618,25 +2256,45 @@
       <c r="B24" s="9" t="s">
         <v>95</v>
       </c>
-      <c r="C24" s="8"/>
-      <c r="D24" s="8"/>
-      <c r="E24" s="8"/>
+      <c r="C24" s="8">
+        <v>0</v>
+      </c>
+      <c r="D24" s="8">
+        <v>0</v>
+      </c>
+      <c r="E24" s="8">
+        <v>0</v>
+      </c>
       <c r="F24" s="8">
-        <v>32</v>
+        <v>86</v>
       </c>
       <c r="G24" s="8">
-        <v>32</v>
+        <v>46</v>
       </c>
       <c r="H24" s="8">
-        <v>500</v>
-      </c>
-      <c r="I24" s="8"/>
-      <c r="J24" s="8"/>
-      <c r="K24" s="8"/>
-      <c r="L24" s="8"/>
-      <c r="M24" s="8"/>
-      <c r="N24" s="8"/>
-      <c r="O24" s="8"/>
+        <v>350</v>
+      </c>
+      <c r="I24" s="8">
+        <v>0</v>
+      </c>
+      <c r="J24" s="8">
+        <v>0</v>
+      </c>
+      <c r="K24" s="8">
+        <v>0</v>
+      </c>
+      <c r="L24" s="8">
+        <v>0</v>
+      </c>
+      <c r="M24" s="8">
+        <v>0</v>
+      </c>
+      <c r="N24" s="8">
+        <v>0</v>
+      </c>
+      <c r="O24" s="8">
+        <v>0</v>
+      </c>
       <c r="P24" s="8"/>
       <c r="Q24" s="8"/>
     </row>
@@ -1647,25 +2305,45 @@
       <c r="B25" s="9" t="s">
         <v>69</v>
       </c>
-      <c r="C25" s="8"/>
-      <c r="D25" s="8"/>
-      <c r="E25" s="8"/>
+      <c r="C25" s="8">
+        <v>0</v>
+      </c>
+      <c r="D25" s="8">
+        <v>0</v>
+      </c>
+      <c r="E25" s="8">
+        <v>0</v>
+      </c>
       <c r="F25" s="8">
-        <v>64</v>
+        <v>106</v>
       </c>
       <c r="G25" s="8">
-        <v>64</v>
+        <v>56</v>
       </c>
       <c r="H25" s="8">
-        <v>600</v>
-      </c>
-      <c r="I25" s="8"/>
-      <c r="J25" s="8"/>
-      <c r="K25" s="8"/>
-      <c r="L25" s="8"/>
-      <c r="M25" s="8"/>
-      <c r="N25" s="8"/>
-      <c r="O25" s="8"/>
+        <v>414</v>
+      </c>
+      <c r="I25" s="8">
+        <v>0</v>
+      </c>
+      <c r="J25" s="8">
+        <v>0</v>
+      </c>
+      <c r="K25" s="8">
+        <v>0</v>
+      </c>
+      <c r="L25" s="8">
+        <v>0</v>
+      </c>
+      <c r="M25" s="8">
+        <v>0</v>
+      </c>
+      <c r="N25" s="8">
+        <v>0</v>
+      </c>
+      <c r="O25" s="8">
+        <v>0</v>
+      </c>
       <c r="P25" s="8"/>
       <c r="Q25" s="8"/>
     </row>
@@ -1679,24 +2357,42 @@
       <c r="C26" s="8">
         <v>100</v>
       </c>
-      <c r="D26" s="8"/>
-      <c r="E26" s="8"/>
+      <c r="D26" s="8">
+        <v>0</v>
+      </c>
+      <c r="E26" s="8">
+        <v>0</v>
+      </c>
       <c r="F26" s="8">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="G26" s="8">
-        <v>2</v>
-      </c>
-      <c r="H26" s="8"/>
+        <v>5</v>
+      </c>
+      <c r="H26" s="8">
+        <v>0</v>
+      </c>
       <c r="I26" s="8">
-        <v>100</v>
-      </c>
-      <c r="J26" s="8"/>
-      <c r="K26" s="8"/>
-      <c r="L26" s="8"/>
-      <c r="M26" s="8"/>
-      <c r="N26" s="8"/>
-      <c r="O26" s="8"/>
+        <v>44</v>
+      </c>
+      <c r="J26" s="8">
+        <v>0</v>
+      </c>
+      <c r="K26" s="8">
+        <v>0</v>
+      </c>
+      <c r="L26" s="8">
+        <v>0</v>
+      </c>
+      <c r="M26" s="8">
+        <v>0</v>
+      </c>
+      <c r="N26" s="8">
+        <v>0</v>
+      </c>
+      <c r="O26" s="8">
+        <v>0</v>
+      </c>
       <c r="P26" s="8"/>
       <c r="Q26" s="8"/>
     </row>
@@ -1708,26 +2404,44 @@
         <v>97</v>
       </c>
       <c r="C27" s="8">
-        <v>200</v>
-      </c>
-      <c r="D27" s="8"/>
-      <c r="E27" s="8"/>
+        <v>900</v>
+      </c>
+      <c r="D27" s="8">
+        <v>0</v>
+      </c>
+      <c r="E27" s="8">
+        <v>0</v>
+      </c>
       <c r="F27" s="8">
-        <v>4</v>
+        <v>17</v>
       </c>
       <c r="G27" s="8">
-        <v>4</v>
-      </c>
-      <c r="H27" s="8"/>
+        <v>17</v>
+      </c>
+      <c r="H27" s="8">
+        <v>0</v>
+      </c>
       <c r="I27" s="8">
-        <v>200</v>
-      </c>
-      <c r="J27" s="8"/>
-      <c r="K27" s="8"/>
-      <c r="L27" s="8"/>
-      <c r="M27" s="8"/>
-      <c r="N27" s="8"/>
-      <c r="O27" s="8"/>
+        <v>108</v>
+      </c>
+      <c r="J27" s="8">
+        <v>0</v>
+      </c>
+      <c r="K27" s="8">
+        <v>0</v>
+      </c>
+      <c r="L27" s="8">
+        <v>0</v>
+      </c>
+      <c r="M27" s="8">
+        <v>0</v>
+      </c>
+      <c r="N27" s="8">
+        <v>0</v>
+      </c>
+      <c r="O27" s="8">
+        <v>0</v>
+      </c>
       <c r="P27" s="8"/>
       <c r="Q27" s="8"/>
     </row>
@@ -1739,26 +2453,44 @@
         <v>98</v>
       </c>
       <c r="C28" s="8">
-        <v>300</v>
-      </c>
-      <c r="D28" s="8"/>
-      <c r="E28" s="8"/>
+        <v>1700</v>
+      </c>
+      <c r="D28" s="8">
+        <v>0</v>
+      </c>
+      <c r="E28" s="8">
+        <v>0</v>
+      </c>
       <c r="F28" s="8">
-        <v>8</v>
+        <v>29</v>
       </c>
       <c r="G28" s="8">
-        <v>8</v>
-      </c>
-      <c r="H28" s="8"/>
+        <v>29</v>
+      </c>
+      <c r="H28" s="8">
+        <v>0</v>
+      </c>
       <c r="I28" s="8">
-        <v>300</v>
-      </c>
-      <c r="J28" s="8"/>
-      <c r="K28" s="8"/>
-      <c r="L28" s="8"/>
-      <c r="M28" s="8"/>
-      <c r="N28" s="8"/>
-      <c r="O28" s="8"/>
+        <v>172</v>
+      </c>
+      <c r="J28" s="8">
+        <v>0</v>
+      </c>
+      <c r="K28" s="8">
+        <v>0</v>
+      </c>
+      <c r="L28" s="8">
+        <v>0</v>
+      </c>
+      <c r="M28" s="8">
+        <v>0</v>
+      </c>
+      <c r="N28" s="8">
+        <v>0</v>
+      </c>
+      <c r="O28" s="8">
+        <v>0</v>
+      </c>
       <c r="P28" s="8"/>
       <c r="Q28" s="8"/>
     </row>
@@ -1770,26 +2502,44 @@
         <v>99</v>
       </c>
       <c r="C29" s="8">
-        <v>400</v>
-      </c>
-      <c r="D29" s="8"/>
-      <c r="E29" s="8"/>
+        <v>2500</v>
+      </c>
+      <c r="D29" s="8">
+        <v>0</v>
+      </c>
+      <c r="E29" s="8">
+        <v>0</v>
+      </c>
       <c r="F29" s="8">
-        <v>16</v>
+        <v>41</v>
       </c>
       <c r="G29" s="8">
-        <v>16</v>
-      </c>
-      <c r="H29" s="8"/>
+        <v>41</v>
+      </c>
+      <c r="H29" s="8">
+        <v>0</v>
+      </c>
       <c r="I29" s="8">
-        <v>400</v>
-      </c>
-      <c r="J29" s="8"/>
-      <c r="K29" s="8"/>
-      <c r="L29" s="8"/>
-      <c r="M29" s="8"/>
-      <c r="N29" s="8"/>
-      <c r="O29" s="8"/>
+        <v>236</v>
+      </c>
+      <c r="J29" s="8">
+        <v>0</v>
+      </c>
+      <c r="K29" s="8">
+        <v>0</v>
+      </c>
+      <c r="L29" s="8">
+        <v>0</v>
+      </c>
+      <c r="M29" s="8">
+        <v>0</v>
+      </c>
+      <c r="N29" s="8">
+        <v>0</v>
+      </c>
+      <c r="O29" s="8">
+        <v>0</v>
+      </c>
       <c r="P29" s="8"/>
       <c r="Q29" s="8"/>
     </row>
@@ -1801,26 +2551,44 @@
         <v>100</v>
       </c>
       <c r="C30" s="8">
-        <v>500</v>
-      </c>
-      <c r="D30" s="8"/>
-      <c r="E30" s="8"/>
+        <v>3300</v>
+      </c>
+      <c r="D30" s="8">
+        <v>0</v>
+      </c>
+      <c r="E30" s="8">
+        <v>0</v>
+      </c>
       <c r="F30" s="8">
-        <v>32</v>
+        <v>53</v>
       </c>
       <c r="G30" s="8">
-        <v>32</v>
-      </c>
-      <c r="H30" s="8"/>
+        <v>53</v>
+      </c>
+      <c r="H30" s="8">
+        <v>0</v>
+      </c>
       <c r="I30" s="8">
-        <v>500</v>
-      </c>
-      <c r="J30" s="8"/>
-      <c r="K30" s="8"/>
-      <c r="L30" s="8"/>
-      <c r="M30" s="8"/>
-      <c r="N30" s="8"/>
-      <c r="O30" s="8"/>
+        <v>300</v>
+      </c>
+      <c r="J30" s="8">
+        <v>0</v>
+      </c>
+      <c r="K30" s="8">
+        <v>0</v>
+      </c>
+      <c r="L30" s="8">
+        <v>0</v>
+      </c>
+      <c r="M30" s="8">
+        <v>0</v>
+      </c>
+      <c r="N30" s="8">
+        <v>0</v>
+      </c>
+      <c r="O30" s="8">
+        <v>0</v>
+      </c>
       <c r="P30" s="8"/>
       <c r="Q30" s="8"/>
     </row>
@@ -1831,25 +2599,45 @@
       <c r="B31" s="9" t="s">
         <v>70</v>
       </c>
-      <c r="C31" s="8"/>
-      <c r="D31" s="8"/>
-      <c r="E31" s="8"/>
+      <c r="C31" s="8">
+        <v>0</v>
+      </c>
+      <c r="D31" s="8">
+        <v>0</v>
+      </c>
+      <c r="E31" s="8">
+        <v>0</v>
+      </c>
       <c r="F31" s="8">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="G31" s="8">
-        <v>64</v>
-      </c>
-      <c r="H31" s="8"/>
+        <v>65</v>
+      </c>
+      <c r="H31" s="8">
+        <v>0</v>
+      </c>
       <c r="I31" s="8">
-        <v>600</v>
-      </c>
-      <c r="J31" s="8"/>
-      <c r="K31" s="8"/>
-      <c r="L31" s="8"/>
-      <c r="M31" s="8"/>
-      <c r="N31" s="8"/>
-      <c r="O31" s="8"/>
+        <v>364</v>
+      </c>
+      <c r="J31" s="8">
+        <v>0</v>
+      </c>
+      <c r="K31" s="8">
+        <v>0</v>
+      </c>
+      <c r="L31" s="8">
+        <v>0</v>
+      </c>
+      <c r="M31" s="8">
+        <v>0</v>
+      </c>
+      <c r="N31" s="8">
+        <v>0</v>
+      </c>
+      <c r="O31" s="8">
+        <v>0</v>
+      </c>
       <c r="P31" s="8"/>
       <c r="Q31" s="8"/>
     </row>
@@ -1860,25 +2648,45 @@
       <c r="B32" s="9" t="s">
         <v>101</v>
       </c>
-      <c r="C32" s="8"/>
-      <c r="D32" s="8"/>
-      <c r="E32" s="8"/>
+      <c r="C32" s="8">
+        <v>0</v>
+      </c>
+      <c r="D32" s="8">
+        <v>0</v>
+      </c>
+      <c r="E32" s="8">
+        <v>0</v>
+      </c>
       <c r="F32" s="8">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="G32" s="8">
-        <v>2</v>
-      </c>
-      <c r="H32" s="8"/>
+        <v>5</v>
+      </c>
+      <c r="H32" s="8">
+        <v>0</v>
+      </c>
       <c r="I32" s="8">
-        <v>100</v>
-      </c>
-      <c r="J32" s="8"/>
-      <c r="K32" s="8"/>
-      <c r="L32" s="8"/>
-      <c r="M32" s="8"/>
-      <c r="N32" s="8"/>
-      <c r="O32" s="8"/>
+        <v>70</v>
+      </c>
+      <c r="J32" s="8">
+        <v>0</v>
+      </c>
+      <c r="K32" s="8">
+        <v>0</v>
+      </c>
+      <c r="L32" s="8">
+        <v>0</v>
+      </c>
+      <c r="M32" s="8">
+        <v>0</v>
+      </c>
+      <c r="N32" s="8">
+        <v>0</v>
+      </c>
+      <c r="O32" s="8">
+        <v>0</v>
+      </c>
       <c r="P32" s="8"/>
       <c r="Q32" s="8"/>
     </row>
@@ -1889,25 +2697,45 @@
       <c r="B33" s="9" t="s">
         <v>102</v>
       </c>
-      <c r="C33" s="8"/>
-      <c r="D33" s="8"/>
-      <c r="E33" s="8"/>
+      <c r="C33" s="8">
+        <v>0</v>
+      </c>
+      <c r="D33" s="8">
+        <v>0</v>
+      </c>
+      <c r="E33" s="8">
+        <v>0</v>
+      </c>
       <c r="F33" s="8">
-        <v>4</v>
+        <v>17</v>
       </c>
       <c r="G33" s="8">
-        <v>4</v>
-      </c>
-      <c r="H33" s="8"/>
+        <v>17</v>
+      </c>
+      <c r="H33" s="8">
+        <v>0</v>
+      </c>
       <c r="I33" s="8">
-        <v>200</v>
-      </c>
-      <c r="J33" s="8"/>
-      <c r="K33" s="8"/>
-      <c r="L33" s="8"/>
-      <c r="M33" s="8"/>
-      <c r="N33" s="8"/>
-      <c r="O33" s="8"/>
+        <v>166</v>
+      </c>
+      <c r="J33" s="8">
+        <v>0</v>
+      </c>
+      <c r="K33" s="8">
+        <v>0</v>
+      </c>
+      <c r="L33" s="8">
+        <v>0</v>
+      </c>
+      <c r="M33" s="8">
+        <v>0</v>
+      </c>
+      <c r="N33" s="8">
+        <v>0</v>
+      </c>
+      <c r="O33" s="8">
+        <v>0</v>
+      </c>
       <c r="P33" s="8"/>
       <c r="Q33" s="8"/>
     </row>
@@ -1918,25 +2746,45 @@
       <c r="B34" s="9" t="s">
         <v>103</v>
       </c>
-      <c r="C34" s="8"/>
-      <c r="D34" s="8"/>
-      <c r="E34" s="8"/>
+      <c r="C34" s="8">
+        <v>0</v>
+      </c>
+      <c r="D34" s="8">
+        <v>0</v>
+      </c>
+      <c r="E34" s="8">
+        <v>0</v>
+      </c>
       <c r="F34" s="8">
-        <v>8</v>
+        <v>29</v>
       </c>
       <c r="G34" s="8">
-        <v>8</v>
-      </c>
-      <c r="H34" s="8"/>
+        <v>29</v>
+      </c>
+      <c r="H34" s="8">
+        <v>0</v>
+      </c>
       <c r="I34" s="8">
-        <v>300</v>
-      </c>
-      <c r="J34" s="8"/>
-      <c r="K34" s="8"/>
-      <c r="L34" s="8"/>
-      <c r="M34" s="8"/>
-      <c r="N34" s="8"/>
-      <c r="O34" s="8"/>
+        <v>262</v>
+      </c>
+      <c r="J34" s="8">
+        <v>0</v>
+      </c>
+      <c r="K34" s="8">
+        <v>0</v>
+      </c>
+      <c r="L34" s="8">
+        <v>0</v>
+      </c>
+      <c r="M34" s="8">
+        <v>0</v>
+      </c>
+      <c r="N34" s="8">
+        <v>0</v>
+      </c>
+      <c r="O34" s="8">
+        <v>0</v>
+      </c>
       <c r="P34" s="8"/>
       <c r="Q34" s="8"/>
     </row>
@@ -1947,25 +2795,45 @@
       <c r="B35" s="9" t="s">
         <v>104</v>
       </c>
-      <c r="C35" s="8"/>
-      <c r="D35" s="8"/>
-      <c r="E35" s="8"/>
+      <c r="C35" s="8">
+        <v>0</v>
+      </c>
+      <c r="D35" s="8">
+        <v>0</v>
+      </c>
+      <c r="E35" s="8">
+        <v>0</v>
+      </c>
       <c r="F35" s="8">
-        <v>16</v>
+        <v>41</v>
       </c>
       <c r="G35" s="8">
-        <v>16</v>
-      </c>
-      <c r="H35" s="8"/>
+        <v>41</v>
+      </c>
+      <c r="H35" s="8">
+        <v>0</v>
+      </c>
       <c r="I35" s="8">
-        <v>400</v>
-      </c>
-      <c r="J35" s="8"/>
-      <c r="K35" s="8"/>
-      <c r="L35" s="8"/>
-      <c r="M35" s="8"/>
-      <c r="N35" s="8"/>
-      <c r="O35" s="8"/>
+        <v>358</v>
+      </c>
+      <c r="J35" s="8">
+        <v>0</v>
+      </c>
+      <c r="K35" s="8">
+        <v>0</v>
+      </c>
+      <c r="L35" s="8">
+        <v>0</v>
+      </c>
+      <c r="M35" s="8">
+        <v>0</v>
+      </c>
+      <c r="N35" s="8">
+        <v>0</v>
+      </c>
+      <c r="O35" s="8">
+        <v>0</v>
+      </c>
       <c r="P35" s="8"/>
       <c r="Q35" s="8"/>
     </row>
@@ -1976,25 +2844,45 @@
       <c r="B36" s="9" t="s">
         <v>105</v>
       </c>
-      <c r="C36" s="8"/>
-      <c r="D36" s="8"/>
-      <c r="E36" s="8"/>
+      <c r="C36" s="8">
+        <v>0</v>
+      </c>
+      <c r="D36" s="8">
+        <v>0</v>
+      </c>
+      <c r="E36" s="8">
+        <v>0</v>
+      </c>
       <c r="F36" s="8">
-        <v>32</v>
+        <v>53</v>
       </c>
       <c r="G36" s="8">
-        <v>32</v>
-      </c>
-      <c r="H36" s="8"/>
+        <v>53</v>
+      </c>
+      <c r="H36" s="8">
+        <v>0</v>
+      </c>
       <c r="I36" s="8">
-        <v>500</v>
-      </c>
-      <c r="J36" s="8"/>
-      <c r="K36" s="8"/>
-      <c r="L36" s="8"/>
-      <c r="M36" s="8"/>
-      <c r="N36" s="8"/>
-      <c r="O36" s="8"/>
+        <v>454</v>
+      </c>
+      <c r="J36" s="8">
+        <v>0</v>
+      </c>
+      <c r="K36" s="8">
+        <v>0</v>
+      </c>
+      <c r="L36" s="8">
+        <v>0</v>
+      </c>
+      <c r="M36" s="8">
+        <v>0</v>
+      </c>
+      <c r="N36" s="8">
+        <v>0</v>
+      </c>
+      <c r="O36" s="8">
+        <v>0</v>
+      </c>
       <c r="P36" s="8"/>
       <c r="Q36" s="8"/>
     </row>
@@ -2005,25 +2893,45 @@
       <c r="B37" s="9" t="s">
         <v>71</v>
       </c>
-      <c r="C37" s="8"/>
-      <c r="D37" s="8"/>
-      <c r="E37" s="8"/>
+      <c r="C37" s="8">
+        <v>0</v>
+      </c>
+      <c r="D37" s="8">
+        <v>0</v>
+      </c>
+      <c r="E37" s="8">
+        <v>0</v>
+      </c>
       <c r="F37" s="8">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="G37" s="8">
-        <v>64</v>
-      </c>
-      <c r="H37" s="8"/>
+        <v>65</v>
+      </c>
+      <c r="H37" s="8">
+        <v>0</v>
+      </c>
       <c r="I37" s="8">
-        <v>600</v>
-      </c>
-      <c r="J37" s="8"/>
-      <c r="K37" s="8"/>
-      <c r="L37" s="8"/>
-      <c r="M37" s="8"/>
-      <c r="N37" s="8"/>
-      <c r="O37" s="8"/>
+        <v>550</v>
+      </c>
+      <c r="J37" s="8">
+        <v>0</v>
+      </c>
+      <c r="K37" s="8">
+        <v>0</v>
+      </c>
+      <c r="L37" s="8">
+        <v>0</v>
+      </c>
+      <c r="M37" s="8">
+        <v>0</v>
+      </c>
+      <c r="N37" s="8">
+        <v>0</v>
+      </c>
+      <c r="O37" s="8">
+        <v>0</v>
+      </c>
       <c r="P37" s="8"/>
       <c r="Q37" s="8"/>
     </row>
@@ -2034,25 +2942,45 @@
       <c r="B38" s="9" t="s">
         <v>106</v>
       </c>
-      <c r="C38" s="8"/>
-      <c r="D38" s="8"/>
-      <c r="E38" s="8"/>
+      <c r="C38" s="8">
+        <v>0</v>
+      </c>
+      <c r="D38" s="8">
+        <v>2</v>
+      </c>
+      <c r="E38" s="8">
+        <v>2</v>
+      </c>
       <c r="F38" s="8">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G38" s="8">
-        <v>2</v>
-      </c>
-      <c r="H38" s="8"/>
-      <c r="I38" s="8"/>
+        <v>0</v>
+      </c>
+      <c r="H38" s="8">
+        <v>0</v>
+      </c>
+      <c r="I38" s="8">
+        <v>0</v>
+      </c>
       <c r="J38" s="8">
         <v>100</v>
       </c>
-      <c r="K38" s="8"/>
-      <c r="L38" s="8"/>
-      <c r="M38" s="8"/>
-      <c r="N38" s="8"/>
-      <c r="O38" s="8"/>
+      <c r="K38" s="8">
+        <v>0</v>
+      </c>
+      <c r="L38" s="8">
+        <v>0</v>
+      </c>
+      <c r="M38" s="8">
+        <v>0</v>
+      </c>
+      <c r="N38" s="8">
+        <v>0</v>
+      </c>
+      <c r="O38" s="8">
+        <v>0</v>
+      </c>
       <c r="P38" s="8"/>
       <c r="Q38" s="8"/>
     </row>
@@ -2063,25 +2991,45 @@
       <c r="B39" s="9" t="s">
         <v>107</v>
       </c>
-      <c r="C39" s="8"/>
-      <c r="D39" s="8"/>
-      <c r="E39" s="8"/>
+      <c r="C39" s="8">
+        <v>0</v>
+      </c>
+      <c r="D39" s="8">
+        <v>10</v>
+      </c>
+      <c r="E39" s="8">
+        <v>10</v>
+      </c>
       <c r="F39" s="8">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="G39" s="8">
-        <v>4</v>
-      </c>
-      <c r="H39" s="8"/>
-      <c r="I39" s="8"/>
+        <v>0</v>
+      </c>
+      <c r="H39" s="8">
+        <v>0</v>
+      </c>
+      <c r="I39" s="8">
+        <v>0</v>
+      </c>
       <c r="J39" s="8">
         <v>150</v>
       </c>
-      <c r="K39" s="8"/>
-      <c r="L39" s="8"/>
-      <c r="M39" s="8"/>
-      <c r="N39" s="8"/>
-      <c r="O39" s="8"/>
+      <c r="K39" s="8">
+        <v>0</v>
+      </c>
+      <c r="L39" s="8">
+        <v>0</v>
+      </c>
+      <c r="M39" s="8">
+        <v>0</v>
+      </c>
+      <c r="N39" s="8">
+        <v>0</v>
+      </c>
+      <c r="O39" s="8">
+        <v>0</v>
+      </c>
       <c r="P39" s="8"/>
       <c r="Q39" s="8"/>
     </row>
@@ -2092,25 +3040,45 @@
       <c r="B40" s="9" t="s">
         <v>108</v>
       </c>
-      <c r="C40" s="8"/>
-      <c r="D40" s="8"/>
-      <c r="E40" s="8"/>
+      <c r="C40" s="8">
+        <v>0</v>
+      </c>
+      <c r="D40" s="8">
+        <v>18</v>
+      </c>
+      <c r="E40" s="8">
+        <v>18</v>
+      </c>
       <c r="F40" s="8">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="G40" s="8">
-        <v>8</v>
-      </c>
-      <c r="H40" s="8"/>
-      <c r="I40" s="8"/>
+        <v>0</v>
+      </c>
+      <c r="H40" s="8">
+        <v>0</v>
+      </c>
+      <c r="I40" s="8">
+        <v>0</v>
+      </c>
       <c r="J40" s="8">
         <v>200</v>
       </c>
-      <c r="K40" s="8"/>
-      <c r="L40" s="8"/>
-      <c r="M40" s="8"/>
-      <c r="N40" s="8"/>
-      <c r="O40" s="8"/>
+      <c r="K40" s="8">
+        <v>0</v>
+      </c>
+      <c r="L40" s="8">
+        <v>0</v>
+      </c>
+      <c r="M40" s="8">
+        <v>0</v>
+      </c>
+      <c r="N40" s="8">
+        <v>0</v>
+      </c>
+      <c r="O40" s="8">
+        <v>0</v>
+      </c>
       <c r="P40" s="8"/>
       <c r="Q40" s="8"/>
     </row>
@@ -2121,25 +3089,45 @@
       <c r="B41" s="9" t="s">
         <v>109</v>
       </c>
-      <c r="C41" s="8"/>
-      <c r="D41" s="8"/>
-      <c r="E41" s="8"/>
+      <c r="C41" s="8">
+        <v>0</v>
+      </c>
+      <c r="D41" s="8">
+        <v>26</v>
+      </c>
+      <c r="E41" s="8">
+        <v>26</v>
+      </c>
       <c r="F41" s="8">
-        <v>16</v>
+        <v>0</v>
       </c>
       <c r="G41" s="8">
-        <v>16</v>
-      </c>
-      <c r="H41" s="8"/>
-      <c r="I41" s="8"/>
+        <v>0</v>
+      </c>
+      <c r="H41" s="8">
+        <v>0</v>
+      </c>
+      <c r="I41" s="8">
+        <v>0</v>
+      </c>
       <c r="J41" s="8">
         <v>250</v>
       </c>
-      <c r="K41" s="8"/>
-      <c r="L41" s="8"/>
-      <c r="M41" s="8"/>
-      <c r="N41" s="8"/>
-      <c r="O41" s="8"/>
+      <c r="K41" s="8">
+        <v>0</v>
+      </c>
+      <c r="L41" s="8">
+        <v>0</v>
+      </c>
+      <c r="M41" s="8">
+        <v>0</v>
+      </c>
+      <c r="N41" s="8">
+        <v>0</v>
+      </c>
+      <c r="O41" s="8">
+        <v>0</v>
+      </c>
       <c r="P41" s="8"/>
       <c r="Q41" s="8"/>
     </row>
@@ -2150,25 +3138,45 @@
       <c r="B42" s="9" t="s">
         <v>110</v>
       </c>
-      <c r="C42" s="8"/>
-      <c r="D42" s="8"/>
-      <c r="E42" s="8"/>
+      <c r="C42" s="8">
+        <v>0</v>
+      </c>
+      <c r="D42" s="8">
+        <v>34</v>
+      </c>
+      <c r="E42" s="8">
+        <v>34</v>
+      </c>
       <c r="F42" s="8">
-        <v>32</v>
+        <v>0</v>
       </c>
       <c r="G42" s="8">
-        <v>32</v>
-      </c>
-      <c r="H42" s="8"/>
-      <c r="I42" s="8"/>
+        <v>0</v>
+      </c>
+      <c r="H42" s="8">
+        <v>0</v>
+      </c>
+      <c r="I42" s="8">
+        <v>0</v>
+      </c>
       <c r="J42" s="8">
         <v>300</v>
       </c>
-      <c r="K42" s="8"/>
-      <c r="L42" s="8"/>
-      <c r="M42" s="8"/>
-      <c r="N42" s="8"/>
-      <c r="O42" s="8"/>
+      <c r="K42" s="8">
+        <v>0</v>
+      </c>
+      <c r="L42" s="8">
+        <v>0</v>
+      </c>
+      <c r="M42" s="8">
+        <v>0</v>
+      </c>
+      <c r="N42" s="8">
+        <v>0</v>
+      </c>
+      <c r="O42" s="8">
+        <v>0</v>
+      </c>
       <c r="P42" s="8"/>
       <c r="Q42" s="8"/>
     </row>
@@ -2179,23 +3187,45 @@
       <c r="B43" s="9" t="s">
         <v>72</v>
       </c>
-      <c r="C43" s="8"/>
-      <c r="D43" s="8"/>
-      <c r="E43" s="8"/>
+      <c r="C43" s="8">
+        <v>0</v>
+      </c>
+      <c r="D43" s="8">
+        <v>42</v>
+      </c>
+      <c r="E43" s="8">
+        <v>42</v>
+      </c>
       <c r="F43" s="8">
-        <v>64</v>
+        <v>0</v>
       </c>
       <c r="G43" s="8">
-        <v>64</v>
-      </c>
-      <c r="H43" s="8"/>
-      <c r="I43" s="8"/>
-      <c r="J43" s="8"/>
-      <c r="K43" s="8"/>
-      <c r="L43" s="8"/>
-      <c r="M43" s="8"/>
-      <c r="N43" s="8"/>
-      <c r="O43" s="8"/>
+        <v>0</v>
+      </c>
+      <c r="H43" s="8">
+        <v>0</v>
+      </c>
+      <c r="I43" s="8">
+        <v>0</v>
+      </c>
+      <c r="J43" s="8">
+        <v>0</v>
+      </c>
+      <c r="K43" s="8">
+        <v>0</v>
+      </c>
+      <c r="L43" s="8">
+        <v>0</v>
+      </c>
+      <c r="M43" s="8">
+        <v>0</v>
+      </c>
+      <c r="N43" s="8">
+        <v>0</v>
+      </c>
+      <c r="O43" s="8">
+        <v>0</v>
+      </c>
       <c r="P43" s="8"/>
       <c r="Q43" s="8"/>
     </row>
@@ -2206,25 +3236,45 @@
       <c r="B44" s="9" t="s">
         <v>111</v>
       </c>
-      <c r="C44" s="8"/>
-      <c r="D44" s="8"/>
-      <c r="E44" s="8"/>
+      <c r="C44" s="8">
+        <v>0</v>
+      </c>
+      <c r="D44" s="8">
+        <v>2</v>
+      </c>
+      <c r="E44" s="8">
+        <v>2</v>
+      </c>
       <c r="F44" s="8">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G44" s="8">
-        <v>2</v>
-      </c>
-      <c r="H44" s="8"/>
-      <c r="I44" s="8"/>
-      <c r="J44" s="8"/>
+        <v>0</v>
+      </c>
+      <c r="H44" s="8">
+        <v>0</v>
+      </c>
+      <c r="I44" s="8">
+        <v>0</v>
+      </c>
+      <c r="J44" s="8">
+        <v>0</v>
+      </c>
       <c r="K44" s="8">
         <v>100</v>
       </c>
-      <c r="L44" s="8"/>
-      <c r="M44" s="8"/>
-      <c r="N44" s="8"/>
-      <c r="O44" s="8"/>
+      <c r="L44" s="8">
+        <v>0</v>
+      </c>
+      <c r="M44" s="8">
+        <v>0</v>
+      </c>
+      <c r="N44" s="8">
+        <v>0</v>
+      </c>
+      <c r="O44" s="8">
+        <v>0</v>
+      </c>
       <c r="P44" s="8"/>
       <c r="Q44" s="8"/>
     </row>
@@ -2235,25 +3285,45 @@
       <c r="B45" s="9" t="s">
         <v>112</v>
       </c>
-      <c r="C45" s="8"/>
-      <c r="D45" s="8"/>
-      <c r="E45" s="8"/>
+      <c r="C45" s="8">
+        <v>0</v>
+      </c>
+      <c r="D45" s="8">
+        <v>10</v>
+      </c>
+      <c r="E45" s="8">
+        <v>10</v>
+      </c>
       <c r="F45" s="8">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="G45" s="8">
-        <v>4</v>
-      </c>
-      <c r="H45" s="8"/>
-      <c r="I45" s="8"/>
-      <c r="J45" s="8"/>
+        <v>0</v>
+      </c>
+      <c r="H45" s="8">
+        <v>0</v>
+      </c>
+      <c r="I45" s="8">
+        <v>0</v>
+      </c>
+      <c r="J45" s="8">
+        <v>0</v>
+      </c>
       <c r="K45" s="8">
         <v>150</v>
       </c>
-      <c r="L45" s="8"/>
-      <c r="M45" s="8"/>
-      <c r="N45" s="8"/>
-      <c r="O45" s="8"/>
+      <c r="L45" s="8">
+        <v>0</v>
+      </c>
+      <c r="M45" s="8">
+        <v>0</v>
+      </c>
+      <c r="N45" s="8">
+        <v>0</v>
+      </c>
+      <c r="O45" s="8">
+        <v>0</v>
+      </c>
       <c r="P45" s="8"/>
       <c r="Q45" s="8"/>
     </row>
@@ -2264,25 +3334,45 @@
       <c r="B46" s="9" t="s">
         <v>113</v>
       </c>
-      <c r="C46" s="8"/>
-      <c r="D46" s="8"/>
-      <c r="E46" s="8"/>
+      <c r="C46" s="8">
+        <v>0</v>
+      </c>
+      <c r="D46" s="8">
+        <v>18</v>
+      </c>
+      <c r="E46" s="8">
+        <v>18</v>
+      </c>
       <c r="F46" s="8">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="G46" s="8">
-        <v>8</v>
-      </c>
-      <c r="H46" s="8"/>
-      <c r="I46" s="8"/>
-      <c r="J46" s="8"/>
+        <v>0</v>
+      </c>
+      <c r="H46" s="8">
+        <v>0</v>
+      </c>
+      <c r="I46" s="8">
+        <v>0</v>
+      </c>
+      <c r="J46" s="8">
+        <v>0</v>
+      </c>
       <c r="K46" s="8">
         <v>200</v>
       </c>
-      <c r="L46" s="8"/>
-      <c r="M46" s="8"/>
-      <c r="N46" s="8"/>
-      <c r="O46" s="8"/>
+      <c r="L46" s="8">
+        <v>0</v>
+      </c>
+      <c r="M46" s="8">
+        <v>0</v>
+      </c>
+      <c r="N46" s="8">
+        <v>0</v>
+      </c>
+      <c r="O46" s="8">
+        <v>0</v>
+      </c>
       <c r="P46" s="8"/>
       <c r="Q46" s="8"/>
     </row>
@@ -2293,25 +3383,45 @@
       <c r="B47" s="9" t="s">
         <v>114</v>
       </c>
-      <c r="C47" s="8"/>
-      <c r="D47" s="8"/>
-      <c r="E47" s="8"/>
+      <c r="C47" s="8">
+        <v>0</v>
+      </c>
+      <c r="D47" s="8">
+        <v>26</v>
+      </c>
+      <c r="E47" s="8">
+        <v>26</v>
+      </c>
       <c r="F47" s="8">
-        <v>16</v>
+        <v>0</v>
       </c>
       <c r="G47" s="8">
-        <v>16</v>
-      </c>
-      <c r="H47" s="8"/>
-      <c r="I47" s="8"/>
-      <c r="J47" s="8"/>
+        <v>0</v>
+      </c>
+      <c r="H47" s="8">
+        <v>0</v>
+      </c>
+      <c r="I47" s="8">
+        <v>0</v>
+      </c>
+      <c r="J47" s="8">
+        <v>0</v>
+      </c>
       <c r="K47" s="8">
         <v>250</v>
       </c>
-      <c r="L47" s="8"/>
-      <c r="M47" s="8"/>
-      <c r="N47" s="8"/>
-      <c r="O47" s="8"/>
+      <c r="L47" s="8">
+        <v>0</v>
+      </c>
+      <c r="M47" s="8">
+        <v>0</v>
+      </c>
+      <c r="N47" s="8">
+        <v>0</v>
+      </c>
+      <c r="O47" s="8">
+        <v>0</v>
+      </c>
       <c r="P47" s="8"/>
       <c r="Q47" s="8"/>
     </row>
@@ -2322,25 +3432,45 @@
       <c r="B48" s="9" t="s">
         <v>115</v>
       </c>
-      <c r="C48" s="8"/>
-      <c r="D48" s="8"/>
-      <c r="E48" s="8"/>
+      <c r="C48" s="8">
+        <v>0</v>
+      </c>
+      <c r="D48" s="8">
+        <v>34</v>
+      </c>
+      <c r="E48" s="8">
+        <v>34</v>
+      </c>
       <c r="F48" s="8">
-        <v>32</v>
+        <v>0</v>
       </c>
       <c r="G48" s="8">
-        <v>32</v>
-      </c>
-      <c r="H48" s="8"/>
-      <c r="I48" s="8"/>
-      <c r="J48" s="8"/>
+        <v>0</v>
+      </c>
+      <c r="H48" s="8">
+        <v>0</v>
+      </c>
+      <c r="I48" s="8">
+        <v>0</v>
+      </c>
+      <c r="J48" s="8">
+        <v>0</v>
+      </c>
       <c r="K48" s="8">
         <v>300</v>
       </c>
-      <c r="L48" s="8"/>
-      <c r="M48" s="8"/>
-      <c r="N48" s="8"/>
-      <c r="O48" s="8"/>
+      <c r="L48" s="8">
+        <v>0</v>
+      </c>
+      <c r="M48" s="8">
+        <v>0</v>
+      </c>
+      <c r="N48" s="8">
+        <v>0</v>
+      </c>
+      <c r="O48" s="8">
+        <v>0</v>
+      </c>
       <c r="P48" s="8"/>
       <c r="Q48" s="8"/>
     </row>
@@ -2351,23 +3481,45 @@
       <c r="B49" s="9" t="s">
         <v>73</v>
       </c>
-      <c r="C49" s="8"/>
-      <c r="D49" s="8"/>
-      <c r="E49" s="8"/>
+      <c r="C49" s="8">
+        <v>0</v>
+      </c>
+      <c r="D49" s="8">
+        <v>42</v>
+      </c>
+      <c r="E49" s="8">
+        <v>42</v>
+      </c>
       <c r="F49" s="8">
-        <v>64</v>
+        <v>0</v>
       </c>
       <c r="G49" s="8">
-        <v>64</v>
-      </c>
-      <c r="H49" s="8"/>
-      <c r="I49" s="8"/>
-      <c r="J49" s="8"/>
-      <c r="K49" s="8"/>
-      <c r="L49" s="8"/>
-      <c r="M49" s="8"/>
-      <c r="N49" s="8"/>
-      <c r="O49" s="8"/>
+        <v>0</v>
+      </c>
+      <c r="H49" s="8">
+        <v>0</v>
+      </c>
+      <c r="I49" s="8">
+        <v>0</v>
+      </c>
+      <c r="J49" s="8">
+        <v>0</v>
+      </c>
+      <c r="K49" s="8">
+        <v>0</v>
+      </c>
+      <c r="L49" s="8">
+        <v>0</v>
+      </c>
+      <c r="M49" s="8">
+        <v>0</v>
+      </c>
+      <c r="N49" s="8">
+        <v>0</v>
+      </c>
+      <c r="O49" s="8">
+        <v>0</v>
+      </c>
       <c r="P49" s="8"/>
       <c r="Q49" s="8"/>
     </row>
@@ -2378,23 +3530,45 @@
       <c r="B50" s="9" t="s">
         <v>116</v>
       </c>
-      <c r="C50" s="8"/>
-      <c r="D50" s="8"/>
-      <c r="E50" s="8"/>
+      <c r="C50" s="8">
+        <v>0</v>
+      </c>
+      <c r="D50" s="8">
+        <v>0</v>
+      </c>
+      <c r="E50" s="8">
+        <v>0</v>
+      </c>
       <c r="F50" s="8">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G50" s="8">
-        <v>2</v>
-      </c>
-      <c r="H50" s="8"/>
-      <c r="I50" s="8"/>
-      <c r="J50" s="8"/>
-      <c r="K50" s="8"/>
-      <c r="L50" s="8"/>
-      <c r="M50" s="8"/>
-      <c r="N50" s="8"/>
-      <c r="O50" s="8"/>
+        <v>0</v>
+      </c>
+      <c r="H50" s="8">
+        <v>0</v>
+      </c>
+      <c r="I50" s="8">
+        <v>0</v>
+      </c>
+      <c r="J50" s="8">
+        <v>0</v>
+      </c>
+      <c r="K50" s="8">
+        <v>0</v>
+      </c>
+      <c r="L50" s="8">
+        <v>0</v>
+      </c>
+      <c r="M50" s="8">
+        <v>100</v>
+      </c>
+      <c r="N50" s="8">
+        <v>0</v>
+      </c>
+      <c r="O50" s="8">
+        <v>0</v>
+      </c>
       <c r="P50" s="8"/>
       <c r="Q50" s="8">
         <v>1</v>
@@ -2407,23 +3581,45 @@
       <c r="B51" s="9" t="s">
         <v>117</v>
       </c>
-      <c r="C51" s="8"/>
-      <c r="D51" s="8"/>
-      <c r="E51" s="8"/>
+      <c r="C51" s="8">
+        <v>0</v>
+      </c>
+      <c r="D51" s="8">
+        <v>0</v>
+      </c>
+      <c r="E51" s="8">
+        <v>0</v>
+      </c>
       <c r="F51" s="8">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="G51" s="8">
-        <v>4</v>
-      </c>
-      <c r="H51" s="8"/>
-      <c r="I51" s="8"/>
-      <c r="J51" s="8"/>
-      <c r="K51" s="8"/>
-      <c r="L51" s="8"/>
-      <c r="M51" s="8"/>
-      <c r="N51" s="8"/>
-      <c r="O51" s="8"/>
+        <v>0</v>
+      </c>
+      <c r="H51" s="8">
+        <v>0</v>
+      </c>
+      <c r="I51" s="8">
+        <v>0</v>
+      </c>
+      <c r="J51" s="8">
+        <v>0</v>
+      </c>
+      <c r="K51" s="8">
+        <v>0</v>
+      </c>
+      <c r="L51" s="8">
+        <v>0</v>
+      </c>
+      <c r="M51" s="8">
+        <v>300</v>
+      </c>
+      <c r="N51" s="8">
+        <v>300</v>
+      </c>
+      <c r="O51" s="8">
+        <v>0</v>
+      </c>
       <c r="P51" s="8"/>
       <c r="Q51" s="8">
         <v>2</v>
@@ -2436,23 +3632,45 @@
       <c r="B52" s="9" t="s">
         <v>118</v>
       </c>
-      <c r="C52" s="8"/>
-      <c r="D52" s="8"/>
-      <c r="E52" s="8"/>
+      <c r="C52" s="8">
+        <v>0</v>
+      </c>
+      <c r="D52" s="8">
+        <v>0</v>
+      </c>
+      <c r="E52" s="8">
+        <v>0</v>
+      </c>
       <c r="F52" s="8">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="G52" s="8">
-        <v>8</v>
-      </c>
-      <c r="H52" s="8"/>
-      <c r="I52" s="8"/>
-      <c r="J52" s="8"/>
-      <c r="K52" s="8"/>
-      <c r="L52" s="8"/>
-      <c r="M52" s="8"/>
-      <c r="N52" s="8"/>
-      <c r="O52" s="8"/>
+        <v>0</v>
+      </c>
+      <c r="H52" s="8">
+        <v>0</v>
+      </c>
+      <c r="I52" s="8">
+        <v>0</v>
+      </c>
+      <c r="J52" s="8">
+        <v>0</v>
+      </c>
+      <c r="K52" s="8">
+        <v>0</v>
+      </c>
+      <c r="L52" s="8">
+        <v>0</v>
+      </c>
+      <c r="M52" s="8">
+        <v>600</v>
+      </c>
+      <c r="N52" s="8">
+        <v>500</v>
+      </c>
+      <c r="O52" s="8">
+        <v>0</v>
+      </c>
       <c r="P52" s="8"/>
       <c r="Q52" s="8">
         <v>3</v>
@@ -2465,23 +3683,45 @@
       <c r="B53" s="9" t="s">
         <v>119</v>
       </c>
-      <c r="C53" s="8"/>
-      <c r="D53" s="8"/>
-      <c r="E53" s="8"/>
+      <c r="C53" s="8">
+        <v>0</v>
+      </c>
+      <c r="D53" s="8">
+        <v>0</v>
+      </c>
+      <c r="E53" s="8">
+        <v>0</v>
+      </c>
       <c r="F53" s="8">
-        <v>16</v>
+        <v>0</v>
       </c>
       <c r="G53" s="8">
-        <v>16</v>
-      </c>
-      <c r="H53" s="8"/>
-      <c r="I53" s="8"/>
-      <c r="J53" s="8"/>
-      <c r="K53" s="8"/>
-      <c r="L53" s="8"/>
-      <c r="M53" s="8"/>
-      <c r="N53" s="8"/>
-      <c r="O53" s="8"/>
+        <v>0</v>
+      </c>
+      <c r="H53" s="8">
+        <v>0</v>
+      </c>
+      <c r="I53" s="8">
+        <v>0</v>
+      </c>
+      <c r="J53" s="8">
+        <v>0</v>
+      </c>
+      <c r="K53" s="8">
+        <v>0</v>
+      </c>
+      <c r="L53" s="8">
+        <v>0</v>
+      </c>
+      <c r="M53" s="8">
+        <v>800</v>
+      </c>
+      <c r="N53" s="8">
+        <v>800</v>
+      </c>
+      <c r="O53" s="8">
+        <v>0</v>
+      </c>
       <c r="P53" s="8"/>
       <c r="Q53" s="8">
         <v>4</v>
@@ -2494,23 +3734,45 @@
       <c r="B54" s="9" t="s">
         <v>120</v>
       </c>
-      <c r="C54" s="8"/>
-      <c r="D54" s="8"/>
-      <c r="E54" s="8"/>
+      <c r="C54" s="8">
+        <v>0</v>
+      </c>
+      <c r="D54" s="8">
+        <v>0</v>
+      </c>
+      <c r="E54" s="8">
+        <v>0</v>
+      </c>
       <c r="F54" s="8">
-        <v>32</v>
+        <v>0</v>
       </c>
       <c r="G54" s="8">
-        <v>32</v>
-      </c>
-      <c r="H54" s="8"/>
-      <c r="I54" s="8"/>
-      <c r="J54" s="8"/>
-      <c r="K54" s="8"/>
-      <c r="L54" s="8"/>
-      <c r="M54" s="8"/>
-      <c r="N54" s="8"/>
-      <c r="O54" s="8"/>
+        <v>0</v>
+      </c>
+      <c r="H54" s="8">
+        <v>0</v>
+      </c>
+      <c r="I54" s="8">
+        <v>0</v>
+      </c>
+      <c r="J54" s="8">
+        <v>0</v>
+      </c>
+      <c r="K54" s="8">
+        <v>0</v>
+      </c>
+      <c r="L54" s="8">
+        <v>0</v>
+      </c>
+      <c r="M54" s="8">
+        <v>1000</v>
+      </c>
+      <c r="N54" s="8">
+        <v>1000</v>
+      </c>
+      <c r="O54" s="8">
+        <v>0</v>
+      </c>
       <c r="P54" s="8"/>
       <c r="Q54" s="8">
         <v>5</v>
@@ -2523,35 +3785,57 @@
       <c r="B55" s="9" t="s">
         <v>74</v>
       </c>
-      <c r="C55" s="8"/>
-      <c r="D55" s="8"/>
-      <c r="E55" s="8"/>
+      <c r="C55" s="8">
+        <v>0</v>
+      </c>
+      <c r="D55" s="8">
+        <v>0</v>
+      </c>
+      <c r="E55" s="8">
+        <v>0</v>
+      </c>
       <c r="F55" s="8">
-        <v>64</v>
+        <v>0</v>
       </c>
       <c r="G55" s="8">
-        <v>64</v>
-      </c>
-      <c r="H55" s="8"/>
-      <c r="I55" s="8"/>
-      <c r="J55" s="8"/>
-      <c r="K55" s="8"/>
-      <c r="L55" s="8"/>
-      <c r="M55" s="8"/>
-      <c r="N55" s="8"/>
-      <c r="O55" s="8"/>
+        <v>0</v>
+      </c>
+      <c r="H55" s="8">
+        <v>0</v>
+      </c>
+      <c r="I55" s="8">
+        <v>0</v>
+      </c>
+      <c r="J55" s="8">
+        <v>0</v>
+      </c>
+      <c r="K55" s="8">
+        <v>0</v>
+      </c>
+      <c r="L55" s="8">
+        <v>0</v>
+      </c>
+      <c r="M55" s="8">
+        <v>1100</v>
+      </c>
+      <c r="N55" s="8">
+        <v>1100</v>
+      </c>
+      <c r="O55" s="8">
+        <v>0</v>
+      </c>
       <c r="P55" s="8"/>
       <c r="Q55" s="8"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="C8:Q55">
-    <cfRule type="cellIs" dxfId="2" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="20" priority="2" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A2:Q123">
-    <cfRule type="cellIs" dxfId="0" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="19" priority="1" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>

--- a/doc/table/装备基础表.xlsx
+++ b/doc/table/装备基础表.xlsx
@@ -283,10 +283,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>反伤</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>物免</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -603,6 +599,10 @@
   </si>
   <si>
     <t>火龙枪</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>反伤</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -811,966 +811,7 @@
     <cellStyle name="常规" xfId="0" builtinId="0"/>
     <cellStyle name="常规 2" xfId="1"/>
   </cellStyles>
-  <dxfs count="270">
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="133">
     <dxf>
       <fill>
         <patternFill>
@@ -3005,8 +2046,8 @@
   <dimension ref="A1:S271"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="M9" sqref="M9"/>
+      <pane ySplit="1" topLeftCell="A245" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="M258" sqref="M258"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -3027,22 +2068,22 @@
         <v>1</v>
       </c>
       <c r="C1" s="15" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="D1" s="10" t="s">
+        <v>117</v>
+      </c>
+      <c r="E1" s="10" t="s">
         <v>118</v>
       </c>
-      <c r="E1" s="10" t="s">
+      <c r="F1" s="10" t="s">
         <v>119</v>
       </c>
-      <c r="F1" s="10" t="s">
+      <c r="G1" s="10" t="s">
         <v>120</v>
       </c>
-      <c r="G1" s="10" t="s">
+      <c r="H1" s="10" t="s">
         <v>121</v>
-      </c>
-      <c r="H1" s="10" t="s">
-        <v>122</v>
       </c>
       <c r="I1" s="10" t="s">
         <v>60</v>
@@ -3051,31 +2092,31 @@
         <v>61</v>
       </c>
       <c r="K1" s="10" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="L1" s="10" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="M1" s="10" t="s">
         <v>62</v>
       </c>
       <c r="N1" s="10" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="O1" s="10" t="s">
+        <v>122</v>
+      </c>
+      <c r="P1" s="10" t="s">
+        <v>151</v>
+      </c>
+      <c r="Q1" s="10" t="s">
+        <v>126</v>
+      </c>
+      <c r="R1" s="15" t="s">
+        <v>127</v>
+      </c>
+      <c r="S1" s="10" t="s">
         <v>123</v>
-      </c>
-      <c r="P1" s="10" t="s">
-        <v>63</v>
-      </c>
-      <c r="Q1" s="10" t="s">
-        <v>127</v>
-      </c>
-      <c r="R1" s="15" t="s">
-        <v>128</v>
-      </c>
-      <c r="S1" s="10" t="s">
-        <v>124</v>
       </c>
     </row>
     <row r="2" spans="1:19" ht="15.75" x14ac:dyDescent="0.3">
@@ -3083,7 +2124,7 @@
         <v>1000</v>
       </c>
       <c r="B2" s="10" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C2" s="10">
         <v>1</v>
@@ -3115,7 +2156,7 @@
         <v>1001</v>
       </c>
       <c r="B3" s="10" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C3" s="10">
         <v>21</v>
@@ -3147,7 +2188,7 @@
         <v>1002</v>
       </c>
       <c r="B4" s="10" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C4" s="10">
         <v>41</v>
@@ -3179,7 +2220,7 @@
         <v>1003</v>
       </c>
       <c r="B5" s="10" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C5" s="10">
         <v>61</v>
@@ -3211,7 +2252,7 @@
         <v>1004</v>
       </c>
       <c r="B6" s="10" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C6" s="10">
         <v>81</v>
@@ -3243,7 +2284,7 @@
         <v>1005</v>
       </c>
       <c r="B7" s="10" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C7" s="10">
         <v>101</v>
@@ -3275,7 +2316,7 @@
         <v>2000</v>
       </c>
       <c r="B8" s="10" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C8" s="10">
         <v>1</v>
@@ -3307,7 +2348,7 @@
         <v>2001</v>
       </c>
       <c r="B9" s="10" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C9" s="10">
         <v>21</v>
@@ -3339,7 +2380,7 @@
         <v>2002</v>
       </c>
       <c r="B10" s="10" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C10" s="10">
         <v>41</v>
@@ -3371,7 +2412,7 @@
         <v>2003</v>
       </c>
       <c r="B11" s="10" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C11" s="10">
         <v>61</v>
@@ -3403,7 +2444,7 @@
         <v>2004</v>
       </c>
       <c r="B12" s="10" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C12" s="10">
         <v>81</v>
@@ -3435,7 +2476,7 @@
         <v>2005</v>
       </c>
       <c r="B13" s="10" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C13" s="10">
         <v>101</v>
@@ -3467,7 +2508,7 @@
         <v>3000</v>
       </c>
       <c r="B14" s="10" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C14" s="10">
         <v>1</v>
@@ -3499,7 +2540,7 @@
         <v>3001</v>
       </c>
       <c r="B15" s="10" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C15" s="10">
         <v>21</v>
@@ -3531,7 +2572,7 @@
         <v>3002</v>
       </c>
       <c r="B16" s="10" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="C16" s="10">
         <v>41</v>
@@ -3563,7 +2604,7 @@
         <v>3003</v>
       </c>
       <c r="B17" s="10" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C17" s="10">
         <v>61</v>
@@ -3595,7 +2636,7 @@
         <v>3004</v>
       </c>
       <c r="B18" s="10" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C18" s="10">
         <v>81</v>
@@ -3627,7 +2668,7 @@
         <v>3005</v>
       </c>
       <c r="B19" s="10" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C19" s="10">
         <v>101</v>
@@ -3659,7 +2700,7 @@
         <v>11000</v>
       </c>
       <c r="B20" s="10" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C20" s="10">
         <v>2</v>
@@ -3697,7 +2738,7 @@
         <v>11001</v>
       </c>
       <c r="B21" s="10" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C21" s="10">
         <v>22</v>
@@ -3735,7 +2776,7 @@
         <v>11002</v>
       </c>
       <c r="B22" s="10" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C22" s="10">
         <v>42</v>
@@ -3773,7 +2814,7 @@
         <v>11003</v>
       </c>
       <c r="B23" s="10" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C23" s="10">
         <v>62</v>
@@ -3811,7 +2852,7 @@
         <v>11004</v>
       </c>
       <c r="B24" s="10" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="C24" s="10">
         <v>82</v>
@@ -3849,7 +2890,7 @@
         <v>11005</v>
       </c>
       <c r="B25" s="10" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C25" s="10">
         <v>102</v>
@@ -3887,7 +2928,7 @@
         <v>12000</v>
       </c>
       <c r="B26" s="10" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C26" s="10">
         <v>3</v>
@@ -3928,7 +2969,7 @@
         <v>12001</v>
       </c>
       <c r="B27" s="10" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C27" s="10">
         <v>23</v>
@@ -3969,7 +3010,7 @@
         <v>12002</v>
       </c>
       <c r="B28" s="10" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C28" s="10">
         <v>43</v>
@@ -4010,7 +3051,7 @@
         <v>12003</v>
       </c>
       <c r="B29" s="10" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C29" s="10">
         <v>63</v>
@@ -4051,7 +3092,7 @@
         <v>12004</v>
       </c>
       <c r="B30" s="10" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C30" s="10">
         <v>83</v>
@@ -4092,7 +3133,7 @@
         <v>12005</v>
       </c>
       <c r="B31" s="10" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C31" s="10">
         <v>103</v>
@@ -4130,7 +3171,7 @@
         <v>13000</v>
       </c>
       <c r="B32" s="10" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C32" s="10">
         <v>4</v>
@@ -4168,7 +3209,7 @@
         <v>13001</v>
       </c>
       <c r="B33" s="10" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C33" s="10">
         <v>24</v>
@@ -4206,7 +3247,7 @@
         <v>13002</v>
       </c>
       <c r="B34" s="10" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C34" s="10">
         <v>44</v>
@@ -4244,7 +3285,7 @@
         <v>13003</v>
       </c>
       <c r="B35" s="10" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C35" s="10">
         <v>64</v>
@@ -4282,7 +3323,7 @@
         <v>13004</v>
       </c>
       <c r="B36" s="10" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C36" s="10">
         <v>84</v>
@@ -4320,7 +3361,7 @@
         <v>13005</v>
       </c>
       <c r="B37" s="10" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C37" s="10">
         <v>104</v>
@@ -4358,7 +3399,7 @@
         <v>14000</v>
       </c>
       <c r="B38" s="10" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="C38" s="10">
         <v>5</v>
@@ -4395,7 +3436,7 @@
         <v>14001</v>
       </c>
       <c r="B39" s="10" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C39" s="10">
         <v>25</v>
@@ -4432,7 +3473,7 @@
         <v>14002</v>
       </c>
       <c r="B40" s="10" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C40" s="10">
         <v>45</v>
@@ -4469,7 +3510,7 @@
         <v>14003</v>
       </c>
       <c r="B41" s="10" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C41" s="10">
         <v>65</v>
@@ -4506,7 +3547,7 @@
         <v>14004</v>
       </c>
       <c r="B42" s="10" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C42" s="10">
         <v>85</v>
@@ -4543,7 +3584,7 @@
         <v>14005</v>
       </c>
       <c r="B43" s="10" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C43" s="10">
         <v>105</v>
@@ -4578,7 +3619,7 @@
         <v>15000</v>
       </c>
       <c r="B44" s="10" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C44" s="10">
         <v>6</v>
@@ -4615,7 +3656,7 @@
         <v>15001</v>
       </c>
       <c r="B45" s="10" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="C45" s="10">
         <v>26</v>
@@ -4652,7 +3693,7 @@
         <v>15002</v>
       </c>
       <c r="B46" s="10" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C46" s="10">
         <v>46</v>
@@ -4689,7 +3730,7 @@
         <v>15003</v>
       </c>
       <c r="B47" s="10" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="C47" s="10">
         <v>66</v>
@@ -4726,7 +3767,7 @@
         <v>15004</v>
       </c>
       <c r="B48" s="10" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C48" s="10">
         <v>86</v>
@@ -4763,7 +3804,7 @@
         <v>15005</v>
       </c>
       <c r="B49" s="10" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C49" s="10">
         <v>106</v>
@@ -4798,7 +3839,7 @@
         <v>16000</v>
       </c>
       <c r="B50" s="10" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C50" s="10">
         <v>7</v>
@@ -4833,7 +3874,7 @@
         <v>16001</v>
       </c>
       <c r="B51" s="10" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="C51" s="10">
         <v>27</v>
@@ -4854,7 +3895,9 @@
       <c r="O51" s="10">
         <v>300</v>
       </c>
-      <c r="P51" s="10"/>
+      <c r="P51" s="10">
+        <v>100</v>
+      </c>
       <c r="Q51" s="10">
         <v>6</v>
       </c>
@@ -4868,7 +3911,7 @@
         <v>16002</v>
       </c>
       <c r="B52" s="10" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="C52" s="10">
         <v>47</v>
@@ -4889,7 +3932,9 @@
       <c r="O52" s="10">
         <v>500</v>
       </c>
-      <c r="P52" s="10"/>
+      <c r="P52" s="10">
+        <v>100</v>
+      </c>
       <c r="Q52" s="10">
         <v>11</v>
       </c>
@@ -4903,7 +3948,7 @@
         <v>16003</v>
       </c>
       <c r="B53" s="10" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C53" s="10">
         <v>67</v>
@@ -4924,7 +3969,9 @@
       <c r="O53" s="10">
         <v>800</v>
       </c>
-      <c r="P53" s="10"/>
+      <c r="P53" s="10">
+        <v>100</v>
+      </c>
       <c r="Q53" s="10">
         <v>16</v>
       </c>
@@ -4938,7 +3985,7 @@
         <v>16004</v>
       </c>
       <c r="B54" s="10" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C54" s="10">
         <v>87</v>
@@ -4959,7 +4006,9 @@
       <c r="O54" s="10">
         <v>1000</v>
       </c>
-      <c r="P54" s="10"/>
+      <c r="P54" s="10">
+        <v>100</v>
+      </c>
       <c r="Q54" s="10">
         <v>21</v>
       </c>
@@ -4973,7 +4022,7 @@
         <v>16005</v>
       </c>
       <c r="B55" s="10" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C55" s="10">
         <v>107</v>
@@ -4994,7 +4043,9 @@
       <c r="O55" s="10">
         <v>1100</v>
       </c>
-      <c r="P55" s="10"/>
+      <c r="P55" s="10">
+        <v>100</v>
+      </c>
       <c r="Q55" s="10">
         <v>26</v>
       </c>
@@ -5008,7 +4059,7 @@
         <v>1000</v>
       </c>
       <c r="B56" s="11" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C56" s="11">
         <v>1</v>
@@ -5040,7 +4091,7 @@
         <v>1001</v>
       </c>
       <c r="B57" s="11" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C57" s="11">
         <v>21</v>
@@ -5072,7 +4123,7 @@
         <v>1002</v>
       </c>
       <c r="B58" s="11" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C58" s="11">
         <v>41</v>
@@ -5104,7 +4155,7 @@
         <v>1003</v>
       </c>
       <c r="B59" s="11" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C59" s="11">
         <v>61</v>
@@ -5136,7 +4187,7 @@
         <v>1004</v>
       </c>
       <c r="B60" s="11" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C60" s="11">
         <v>81</v>
@@ -5168,7 +4219,7 @@
         <v>1005</v>
       </c>
       <c r="B61" s="11" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C61" s="11">
         <v>101</v>
@@ -5200,7 +4251,7 @@
         <v>2000</v>
       </c>
       <c r="B62" s="11" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="C62" s="11">
         <v>1</v>
@@ -5232,7 +4283,7 @@
         <v>2001</v>
       </c>
       <c r="B63" s="11" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C63" s="11">
         <v>21</v>
@@ -5264,7 +4315,7 @@
         <v>2002</v>
       </c>
       <c r="B64" s="11" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="C64" s="11">
         <v>41</v>
@@ -5296,7 +4347,7 @@
         <v>2003</v>
       </c>
       <c r="B65" s="11" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="C65" s="11">
         <v>61</v>
@@ -5328,7 +4379,7 @@
         <v>2004</v>
       </c>
       <c r="B66" s="11" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C66" s="11">
         <v>81</v>
@@ -5360,7 +4411,7 @@
         <v>2005</v>
       </c>
       <c r="B67" s="11" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C67" s="11">
         <v>101</v>
@@ -5392,7 +4443,7 @@
         <v>3000</v>
       </c>
       <c r="B68" s="11" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C68" s="11">
         <v>1</v>
@@ -5424,7 +4475,7 @@
         <v>3001</v>
       </c>
       <c r="B69" s="11" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C69" s="11">
         <v>21</v>
@@ -5456,7 +4507,7 @@
         <v>3002</v>
       </c>
       <c r="B70" s="11" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="C70" s="11">
         <v>41</v>
@@ -5488,7 +4539,7 @@
         <v>3003</v>
       </c>
       <c r="B71" s="11" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="C71" s="11">
         <v>61</v>
@@ -5520,7 +4571,7 @@
         <v>3004</v>
       </c>
       <c r="B72" s="11" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="C72" s="11">
         <v>81</v>
@@ -5552,7 +4603,7 @@
         <v>3005</v>
       </c>
       <c r="B73" s="11" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C73" s="11">
         <v>101</v>
@@ -5584,7 +4635,7 @@
         <v>11000</v>
       </c>
       <c r="B74" s="11" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="C74" s="11">
         <v>2</v>
@@ -5622,7 +4673,7 @@
         <v>11001</v>
       </c>
       <c r="B75" s="11" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="C75" s="11">
         <v>22</v>
@@ -5660,7 +4711,7 @@
         <v>11002</v>
       </c>
       <c r="B76" s="11" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="C76" s="11">
         <v>42</v>
@@ -5698,7 +4749,7 @@
         <v>11003</v>
       </c>
       <c r="B77" s="11" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="C77" s="11">
         <v>62</v>
@@ -5736,7 +4787,7 @@
         <v>11004</v>
       </c>
       <c r="B78" s="11" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="C78" s="11">
         <v>82</v>
@@ -5774,7 +4825,7 @@
         <v>11005</v>
       </c>
       <c r="B79" s="11" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C79" s="11">
         <v>102</v>
@@ -5812,7 +4863,7 @@
         <v>12000</v>
       </c>
       <c r="B80" s="11" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C80" s="11">
         <v>3</v>
@@ -5853,7 +4904,7 @@
         <v>12001</v>
       </c>
       <c r="B81" s="11" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C81" s="11">
         <v>23</v>
@@ -5894,7 +4945,7 @@
         <v>12002</v>
       </c>
       <c r="B82" s="11" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C82" s="11">
         <v>43</v>
@@ -5935,7 +4986,7 @@
         <v>12003</v>
       </c>
       <c r="B83" s="11" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C83" s="11">
         <v>63</v>
@@ -5976,7 +5027,7 @@
         <v>12004</v>
       </c>
       <c r="B84" s="11" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C84" s="11">
         <v>83</v>
@@ -6017,7 +5068,7 @@
         <v>12005</v>
       </c>
       <c r="B85" s="11" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C85" s="11">
         <v>103</v>
@@ -6055,7 +5106,7 @@
         <v>13000</v>
       </c>
       <c r="B86" s="11" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C86" s="11">
         <v>4</v>
@@ -6093,7 +5144,7 @@
         <v>13001</v>
       </c>
       <c r="B87" s="11" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C87" s="11">
         <v>24</v>
@@ -6131,7 +5182,7 @@
         <v>13002</v>
       </c>
       <c r="B88" s="11" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C88" s="11">
         <v>44</v>
@@ -6169,7 +5220,7 @@
         <v>13003</v>
       </c>
       <c r="B89" s="11" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C89" s="11">
         <v>64</v>
@@ -6207,7 +5258,7 @@
         <v>13004</v>
       </c>
       <c r="B90" s="11" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C90" s="11">
         <v>84</v>
@@ -6245,7 +5296,7 @@
         <v>13005</v>
       </c>
       <c r="B91" s="11" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C91" s="11">
         <v>104</v>
@@ -6283,7 +5334,7 @@
         <v>14000</v>
       </c>
       <c r="B92" s="11" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="C92" s="11">
         <v>5</v>
@@ -6320,7 +5371,7 @@
         <v>14001</v>
       </c>
       <c r="B93" s="11" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C93" s="11">
         <v>25</v>
@@ -6357,7 +5408,7 @@
         <v>14002</v>
       </c>
       <c r="B94" s="11" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C94" s="11">
         <v>45</v>
@@ -6394,7 +5445,7 @@
         <v>14003</v>
       </c>
       <c r="B95" s="11" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C95" s="11">
         <v>65</v>
@@ -6431,7 +5482,7 @@
         <v>14004</v>
       </c>
       <c r="B96" s="11" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C96" s="11">
         <v>85</v>
@@ -6468,7 +5519,7 @@
         <v>14005</v>
       </c>
       <c r="B97" s="11" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C97" s="11">
         <v>105</v>
@@ -6503,7 +5554,7 @@
         <v>15000</v>
       </c>
       <c r="B98" s="11" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C98" s="11">
         <v>6</v>
@@ -6540,7 +5591,7 @@
         <v>15001</v>
       </c>
       <c r="B99" s="11" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="C99" s="11">
         <v>26</v>
@@ -6577,7 +5628,7 @@
         <v>15002</v>
       </c>
       <c r="B100" s="11" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C100" s="11">
         <v>46</v>
@@ -6614,7 +5665,7 @@
         <v>15003</v>
       </c>
       <c r="B101" s="11" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="C101" s="11">
         <v>66</v>
@@ -6651,7 +5702,7 @@
         <v>15004</v>
       </c>
       <c r="B102" s="11" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C102" s="11">
         <v>86</v>
@@ -6688,7 +5739,7 @@
         <v>15005</v>
       </c>
       <c r="B103" s="11" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C103" s="11">
         <v>106</v>
@@ -6723,7 +5774,7 @@
         <v>16000</v>
       </c>
       <c r="B104" s="11" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C104" s="11">
         <v>7</v>
@@ -6744,7 +5795,9 @@
       <c r="O104" s="11">
         <v>100</v>
       </c>
-      <c r="P104" s="11"/>
+      <c r="P104" s="11">
+        <v>100</v>
+      </c>
       <c r="Q104" s="11">
         <v>2</v>
       </c>
@@ -6758,7 +5811,7 @@
         <v>16001</v>
       </c>
       <c r="B105" s="11" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="C105" s="11">
         <v>27</v>
@@ -6779,7 +5832,9 @@
       <c r="O105" s="11">
         <v>300</v>
       </c>
-      <c r="P105" s="11"/>
+      <c r="P105" s="11">
+        <v>100</v>
+      </c>
       <c r="Q105" s="11">
         <v>7</v>
       </c>
@@ -6793,7 +5848,7 @@
         <v>16002</v>
       </c>
       <c r="B106" s="11" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="C106" s="11">
         <v>47</v>
@@ -6814,7 +5869,9 @@
       <c r="O106" s="11">
         <v>600</v>
       </c>
-      <c r="P106" s="11"/>
+      <c r="P106" s="11">
+        <v>100</v>
+      </c>
       <c r="Q106" s="11">
         <v>12</v>
       </c>
@@ -6828,7 +5885,7 @@
         <v>16003</v>
       </c>
       <c r="B107" s="11" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C107" s="11">
         <v>67</v>
@@ -6849,7 +5906,9 @@
       <c r="O107" s="11">
         <v>800</v>
       </c>
-      <c r="P107" s="11"/>
+      <c r="P107" s="11">
+        <v>100</v>
+      </c>
       <c r="Q107" s="11">
         <v>17</v>
       </c>
@@ -6863,7 +5922,7 @@
         <v>16004</v>
       </c>
       <c r="B108" s="11" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C108" s="11">
         <v>87</v>
@@ -6884,7 +5943,9 @@
       <c r="O108" s="11">
         <v>1000</v>
       </c>
-      <c r="P108" s="11"/>
+      <c r="P108" s="11">
+        <v>100</v>
+      </c>
       <c r="Q108" s="11">
         <v>22</v>
       </c>
@@ -6898,7 +5959,7 @@
         <v>16005</v>
       </c>
       <c r="B109" s="11" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="C109" s="11">
         <v>107</v>
@@ -6919,7 +5980,9 @@
       <c r="O109" s="11">
         <v>1100</v>
       </c>
-      <c r="P109" s="11"/>
+      <c r="P109" s="11">
+        <v>100</v>
+      </c>
       <c r="Q109" s="11">
         <v>27</v>
       </c>
@@ -6933,7 +5996,7 @@
         <v>1000</v>
       </c>
       <c r="B110" s="12" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="C110" s="12">
         <v>1</v>
@@ -6965,7 +6028,7 @@
         <v>1001</v>
       </c>
       <c r="B111" s="12" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="C111" s="12">
         <v>21</v>
@@ -6997,7 +6060,7 @@
         <v>1002</v>
       </c>
       <c r="B112" s="12" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="C112" s="12">
         <v>41</v>
@@ -7029,7 +6092,7 @@
         <v>1003</v>
       </c>
       <c r="B113" s="12" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="C113" s="12">
         <v>61</v>
@@ -7061,7 +6124,7 @@
         <v>1004</v>
       </c>
       <c r="B114" s="12" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="C114" s="12">
         <v>81</v>
@@ -7093,7 +6156,7 @@
         <v>1005</v>
       </c>
       <c r="B115" s="12" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C115" s="12">
         <v>101</v>
@@ -7125,7 +6188,7 @@
         <v>2000</v>
       </c>
       <c r="B116" s="12" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="C116" s="12">
         <v>1</v>
@@ -7157,7 +6220,7 @@
         <v>2001</v>
       </c>
       <c r="B117" s="12" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C117" s="12">
         <v>21</v>
@@ -7189,7 +6252,7 @@
         <v>2002</v>
       </c>
       <c r="B118" s="12" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="C118" s="12">
         <v>41</v>
@@ -7221,7 +6284,7 @@
         <v>2003</v>
       </c>
       <c r="B119" s="12" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="C119" s="12">
         <v>61</v>
@@ -7253,7 +6316,7 @@
         <v>2004</v>
       </c>
       <c r="B120" s="12" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C120" s="12">
         <v>81</v>
@@ -7285,7 +6348,7 @@
         <v>2005</v>
       </c>
       <c r="B121" s="12" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C121" s="12">
         <v>101</v>
@@ -7317,7 +6380,7 @@
         <v>3000</v>
       </c>
       <c r="B122" s="12" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C122" s="12">
         <v>1</v>
@@ -7349,7 +6412,7 @@
         <v>3001</v>
       </c>
       <c r="B123" s="12" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C123" s="12">
         <v>21</v>
@@ -7381,7 +6444,7 @@
         <v>3002</v>
       </c>
       <c r="B124" s="12" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="C124" s="12">
         <v>41</v>
@@ -7413,7 +6476,7 @@
         <v>3003</v>
       </c>
       <c r="B125" s="12" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="C125" s="12">
         <v>61</v>
@@ -7445,7 +6508,7 @@
         <v>3004</v>
       </c>
       <c r="B126" s="12" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="C126" s="12">
         <v>81</v>
@@ -7477,7 +6540,7 @@
         <v>3005</v>
       </c>
       <c r="B127" s="12" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C127" s="12">
         <v>101</v>
@@ -7509,7 +6572,7 @@
         <v>11000</v>
       </c>
       <c r="B128" s="12" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="C128" s="12">
         <v>2</v>
@@ -7547,7 +6610,7 @@
         <v>11001</v>
       </c>
       <c r="B129" s="12" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="C129" s="12">
         <v>22</v>
@@ -7585,7 +6648,7 @@
         <v>11002</v>
       </c>
       <c r="B130" s="12" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="C130" s="12">
         <v>42</v>
@@ -7623,7 +6686,7 @@
         <v>11003</v>
       </c>
       <c r="B131" s="12" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="C131" s="12">
         <v>62</v>
@@ -7661,7 +6724,7 @@
         <v>11004</v>
       </c>
       <c r="B132" s="12" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="C132" s="12">
         <v>82</v>
@@ -7699,7 +6762,7 @@
         <v>11005</v>
       </c>
       <c r="B133" s="12" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C133" s="12">
         <v>102</v>
@@ -7737,7 +6800,7 @@
         <v>12000</v>
       </c>
       <c r="B134" s="12" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C134" s="12">
         <v>3</v>
@@ -7778,7 +6841,7 @@
         <v>12001</v>
       </c>
       <c r="B135" s="12" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C135" s="12">
         <v>23</v>
@@ -7819,7 +6882,7 @@
         <v>12002</v>
       </c>
       <c r="B136" s="12" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C136" s="12">
         <v>43</v>
@@ -7860,7 +6923,7 @@
         <v>12003</v>
       </c>
       <c r="B137" s="12" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C137" s="12">
         <v>63</v>
@@ -7901,7 +6964,7 @@
         <v>12004</v>
       </c>
       <c r="B138" s="12" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C138" s="12">
         <v>83</v>
@@ -7942,7 +7005,7 @@
         <v>12005</v>
       </c>
       <c r="B139" s="12" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C139" s="12">
         <v>103</v>
@@ -7980,7 +7043,7 @@
         <v>13000</v>
       </c>
       <c r="B140" s="12" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C140" s="12">
         <v>4</v>
@@ -8018,7 +7081,7 @@
         <v>13001</v>
       </c>
       <c r="B141" s="12" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C141" s="12">
         <v>24</v>
@@ -8056,7 +7119,7 @@
         <v>13002</v>
       </c>
       <c r="B142" s="12" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C142" s="12">
         <v>44</v>
@@ -8094,7 +7157,7 @@
         <v>13003</v>
       </c>
       <c r="B143" s="12" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C143" s="12">
         <v>64</v>
@@ -8132,7 +7195,7 @@
         <v>13004</v>
       </c>
       <c r="B144" s="12" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C144" s="12">
         <v>84</v>
@@ -8170,7 +7233,7 @@
         <v>13005</v>
       </c>
       <c r="B145" s="12" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C145" s="12">
         <v>104</v>
@@ -8208,7 +7271,7 @@
         <v>14000</v>
       </c>
       <c r="B146" s="12" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="C146" s="12">
         <v>5</v>
@@ -8245,7 +7308,7 @@
         <v>14001</v>
       </c>
       <c r="B147" s="12" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C147" s="12">
         <v>25</v>
@@ -8282,7 +7345,7 @@
         <v>14002</v>
       </c>
       <c r="B148" s="12" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C148" s="12">
         <v>45</v>
@@ -8319,7 +7382,7 @@
         <v>14003</v>
       </c>
       <c r="B149" s="12" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C149" s="12">
         <v>65</v>
@@ -8356,7 +7419,7 @@
         <v>14004</v>
       </c>
       <c r="B150" s="12" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C150" s="12">
         <v>85</v>
@@ -8393,7 +7456,7 @@
         <v>14005</v>
       </c>
       <c r="B151" s="12" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C151" s="12">
         <v>105</v>
@@ -8428,7 +7491,7 @@
         <v>15000</v>
       </c>
       <c r="B152" s="12" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C152" s="12">
         <v>6</v>
@@ -8465,7 +7528,7 @@
         <v>15001</v>
       </c>
       <c r="B153" s="12" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="C153" s="12">
         <v>26</v>
@@ -8502,7 +7565,7 @@
         <v>15002</v>
       </c>
       <c r="B154" s="12" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C154" s="12">
         <v>46</v>
@@ -8539,7 +7602,7 @@
         <v>15003</v>
       </c>
       <c r="B155" s="12" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="C155" s="12">
         <v>66</v>
@@ -8576,7 +7639,7 @@
         <v>15004</v>
       </c>
       <c r="B156" s="12" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C156" s="12">
         <v>86</v>
@@ -8613,7 +7676,7 @@
         <v>15005</v>
       </c>
       <c r="B157" s="12" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C157" s="12">
         <v>106</v>
@@ -8648,7 +7711,7 @@
         <v>16000</v>
       </c>
       <c r="B158" s="12" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C158" s="12">
         <v>7</v>
@@ -8669,7 +7732,9 @@
       <c r="O158" s="12">
         <v>100</v>
       </c>
-      <c r="P158" s="12"/>
+      <c r="P158" s="12">
+        <v>100</v>
+      </c>
       <c r="Q158" s="12">
         <v>3</v>
       </c>
@@ -8683,7 +7748,7 @@
         <v>16001</v>
       </c>
       <c r="B159" s="12" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="C159" s="12">
         <v>27</v>
@@ -8704,7 +7769,9 @@
       <c r="O159" s="12">
         <v>400</v>
       </c>
-      <c r="P159" s="12"/>
+      <c r="P159" s="12">
+        <v>100</v>
+      </c>
       <c r="Q159" s="12">
         <v>8</v>
       </c>
@@ -8718,7 +7785,7 @@
         <v>16002</v>
       </c>
       <c r="B160" s="12" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="C160" s="12">
         <v>47</v>
@@ -8739,7 +7806,9 @@
       <c r="O160" s="12">
         <v>600</v>
       </c>
-      <c r="P160" s="12"/>
+      <c r="P160" s="12">
+        <v>100</v>
+      </c>
       <c r="Q160" s="12">
         <v>13</v>
       </c>
@@ -8753,7 +7822,7 @@
         <v>16003</v>
       </c>
       <c r="B161" s="12" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C161" s="12">
         <v>67</v>
@@ -8774,7 +7843,9 @@
       <c r="O161" s="12">
         <v>900</v>
       </c>
-      <c r="P161" s="12"/>
+      <c r="P161" s="12">
+        <v>100</v>
+      </c>
       <c r="Q161" s="12">
         <v>18</v>
       </c>
@@ -8788,7 +7859,7 @@
         <v>16004</v>
       </c>
       <c r="B162" s="12" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C162" s="12">
         <v>87</v>
@@ -8809,7 +7880,9 @@
       <c r="O162" s="12">
         <v>1000</v>
       </c>
-      <c r="P162" s="12"/>
+      <c r="P162" s="12">
+        <v>100</v>
+      </c>
       <c r="Q162" s="12">
         <v>23</v>
       </c>
@@ -8823,7 +7896,7 @@
         <v>16005</v>
       </c>
       <c r="B163" s="12" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="C163" s="12">
         <v>107</v>
@@ -8844,7 +7917,9 @@
       <c r="O163" s="12">
         <v>1100</v>
       </c>
-      <c r="P163" s="12"/>
+      <c r="P163" s="12">
+        <v>100</v>
+      </c>
       <c r="Q163" s="12">
         <v>28</v>
       </c>
@@ -8858,7 +7933,7 @@
         <v>1000</v>
       </c>
       <c r="B164" s="13" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="C164" s="13">
         <v>1</v>
@@ -8890,7 +7965,7 @@
         <v>1001</v>
       </c>
       <c r="B165" s="13" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="C165" s="13">
         <v>21</v>
@@ -8922,7 +7997,7 @@
         <v>1002</v>
       </c>
       <c r="B166" s="13" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="C166" s="13">
         <v>41</v>
@@ -8954,7 +8029,7 @@
         <v>1003</v>
       </c>
       <c r="B167" s="13" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="C167" s="13">
         <v>61</v>
@@ -8986,7 +8061,7 @@
         <v>1004</v>
       </c>
       <c r="B168" s="13" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="C168" s="13">
         <v>81</v>
@@ -9018,7 +8093,7 @@
         <v>1005</v>
       </c>
       <c r="B169" s="13" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C169" s="13">
         <v>101</v>
@@ -9050,7 +8125,7 @@
         <v>2000</v>
       </c>
       <c r="B170" s="13" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="C170" s="13">
         <v>1</v>
@@ -9082,7 +8157,7 @@
         <v>2001</v>
       </c>
       <c r="B171" s="13" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C171" s="13">
         <v>21</v>
@@ -9114,7 +8189,7 @@
         <v>2002</v>
       </c>
       <c r="B172" s="13" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="C172" s="13">
         <v>41</v>
@@ -9146,7 +8221,7 @@
         <v>2003</v>
       </c>
       <c r="B173" s="13" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="C173" s="13">
         <v>61</v>
@@ -9178,7 +8253,7 @@
         <v>2004</v>
       </c>
       <c r="B174" s="13" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C174" s="13">
         <v>81</v>
@@ -9210,7 +8285,7 @@
         <v>2005</v>
       </c>
       <c r="B175" s="13" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C175" s="13">
         <v>101</v>
@@ -9242,7 +8317,7 @@
         <v>3000</v>
       </c>
       <c r="B176" s="13" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C176" s="13">
         <v>1</v>
@@ -9274,7 +8349,7 @@
         <v>3001</v>
       </c>
       <c r="B177" s="13" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C177" s="13">
         <v>21</v>
@@ -9306,7 +8381,7 @@
         <v>3002</v>
       </c>
       <c r="B178" s="13" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="C178" s="13">
         <v>41</v>
@@ -9338,7 +8413,7 @@
         <v>3003</v>
       </c>
       <c r="B179" s="13" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="C179" s="13">
         <v>61</v>
@@ -9370,7 +8445,7 @@
         <v>3004</v>
       </c>
       <c r="B180" s="13" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="C180" s="13">
         <v>81</v>
@@ -9402,7 +8477,7 @@
         <v>3005</v>
       </c>
       <c r="B181" s="13" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C181" s="13">
         <v>101</v>
@@ -9434,7 +8509,7 @@
         <v>11000</v>
       </c>
       <c r="B182" s="13" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="C182" s="13">
         <v>2</v>
@@ -9472,7 +8547,7 @@
         <v>11001</v>
       </c>
       <c r="B183" s="13" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="C183" s="13">
         <v>22</v>
@@ -9510,7 +8585,7 @@
         <v>11002</v>
       </c>
       <c r="B184" s="13" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="C184" s="13">
         <v>42</v>
@@ -9548,7 +8623,7 @@
         <v>11003</v>
       </c>
       <c r="B185" s="13" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="C185" s="13">
         <v>62</v>
@@ -9586,7 +8661,7 @@
         <v>11004</v>
       </c>
       <c r="B186" s="13" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="C186" s="13">
         <v>82</v>
@@ -9624,7 +8699,7 @@
         <v>11005</v>
       </c>
       <c r="B187" s="13" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C187" s="13">
         <v>102</v>
@@ -9662,7 +8737,7 @@
         <v>12000</v>
       </c>
       <c r="B188" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C188" s="13">
         <v>3</v>
@@ -9703,7 +8778,7 @@
         <v>12001</v>
       </c>
       <c r="B189" s="13" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C189" s="13">
         <v>23</v>
@@ -9744,7 +8819,7 @@
         <v>12002</v>
       </c>
       <c r="B190" s="13" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C190" s="13">
         <v>43</v>
@@ -9785,7 +8860,7 @@
         <v>12003</v>
       </c>
       <c r="B191" s="13" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C191" s="13">
         <v>63</v>
@@ -9826,7 +8901,7 @@
         <v>12004</v>
       </c>
       <c r="B192" s="13" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C192" s="13">
         <v>83</v>
@@ -9867,7 +8942,7 @@
         <v>12005</v>
       </c>
       <c r="B193" s="13" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C193" s="13">
         <v>103</v>
@@ -9905,7 +8980,7 @@
         <v>13000</v>
       </c>
       <c r="B194" s="13" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C194" s="13">
         <v>4</v>
@@ -9943,7 +9018,7 @@
         <v>13001</v>
       </c>
       <c r="B195" s="13" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C195" s="13">
         <v>24</v>
@@ -9981,7 +9056,7 @@
         <v>13002</v>
       </c>
       <c r="B196" s="13" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C196" s="13">
         <v>44</v>
@@ -10019,7 +9094,7 @@
         <v>13003</v>
       </c>
       <c r="B197" s="13" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C197" s="13">
         <v>64</v>
@@ -10057,7 +9132,7 @@
         <v>13004</v>
       </c>
       <c r="B198" s="13" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C198" s="13">
         <v>84</v>
@@ -10095,7 +9170,7 @@
         <v>13005</v>
       </c>
       <c r="B199" s="13" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C199" s="13">
         <v>104</v>
@@ -10133,7 +9208,7 @@
         <v>14000</v>
       </c>
       <c r="B200" s="13" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="C200" s="13">
         <v>5</v>
@@ -10170,7 +9245,7 @@
         <v>14001</v>
       </c>
       <c r="B201" s="13" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C201" s="13">
         <v>25</v>
@@ -10207,7 +9282,7 @@
         <v>14002</v>
       </c>
       <c r="B202" s="13" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C202" s="13">
         <v>45</v>
@@ -10244,7 +9319,7 @@
         <v>14003</v>
       </c>
       <c r="B203" s="13" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C203" s="13">
         <v>65</v>
@@ -10281,7 +9356,7 @@
         <v>14004</v>
       </c>
       <c r="B204" s="13" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C204" s="13">
         <v>85</v>
@@ -10318,7 +9393,7 @@
         <v>14005</v>
       </c>
       <c r="B205" s="13" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C205" s="13">
         <v>105</v>
@@ -10353,7 +9428,7 @@
         <v>15000</v>
       </c>
       <c r="B206" s="13" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C206" s="13">
         <v>6</v>
@@ -10390,7 +9465,7 @@
         <v>15001</v>
       </c>
       <c r="B207" s="13" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="C207" s="13">
         <v>26</v>
@@ -10427,7 +9502,7 @@
         <v>15002</v>
       </c>
       <c r="B208" s="13" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C208" s="13">
         <v>46</v>
@@ -10464,7 +9539,7 @@
         <v>15003</v>
       </c>
       <c r="B209" s="13" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="C209" s="13">
         <v>66</v>
@@ -10501,7 +9576,7 @@
         <v>15004</v>
       </c>
       <c r="B210" s="13" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C210" s="13">
         <v>86</v>
@@ -10538,7 +9613,7 @@
         <v>15005</v>
       </c>
       <c r="B211" s="13" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C211" s="13">
         <v>106</v>
@@ -10573,7 +9648,7 @@
         <v>16000</v>
       </c>
       <c r="B212" s="13" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C212" s="13">
         <v>7</v>
@@ -10594,7 +9669,9 @@
       <c r="O212" s="13">
         <v>200</v>
       </c>
-      <c r="P212" s="13"/>
+      <c r="P212" s="13">
+        <v>100</v>
+      </c>
       <c r="Q212" s="13">
         <v>4</v>
       </c>
@@ -10608,7 +9685,7 @@
         <v>16001</v>
       </c>
       <c r="B213" s="13" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="C213" s="13">
         <v>27</v>
@@ -10629,7 +9706,9 @@
       <c r="O213" s="13">
         <v>400</v>
       </c>
-      <c r="P213" s="13"/>
+      <c r="P213" s="13">
+        <v>100</v>
+      </c>
       <c r="Q213" s="13">
         <v>9</v>
       </c>
@@ -10643,7 +9722,7 @@
         <v>16002</v>
       </c>
       <c r="B214" s="13" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="C214" s="13">
         <v>47</v>
@@ -10664,7 +9743,9 @@
       <c r="O214" s="13">
         <v>700</v>
       </c>
-      <c r="P214" s="13"/>
+      <c r="P214" s="13">
+        <v>100</v>
+      </c>
       <c r="Q214" s="13">
         <v>14</v>
       </c>
@@ -10678,7 +9759,7 @@
         <v>16003</v>
       </c>
       <c r="B215" s="13" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C215" s="13">
         <v>67</v>
@@ -10699,7 +9780,9 @@
       <c r="O215" s="13">
         <v>900</v>
       </c>
-      <c r="P215" s="13"/>
+      <c r="P215" s="13">
+        <v>100</v>
+      </c>
       <c r="Q215" s="13">
         <v>19</v>
       </c>
@@ -10713,7 +9796,7 @@
         <v>16004</v>
       </c>
       <c r="B216" s="13" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C216" s="13">
         <v>87</v>
@@ -10734,7 +9817,9 @@
       <c r="O216" s="13">
         <v>1000</v>
       </c>
-      <c r="P216" s="13"/>
+      <c r="P216" s="13">
+        <v>100</v>
+      </c>
       <c r="Q216" s="13">
         <v>24</v>
       </c>
@@ -10748,7 +9833,7 @@
         <v>16005</v>
       </c>
       <c r="B217" s="13" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="C217" s="13">
         <v>107</v>
@@ -10769,7 +9854,9 @@
       <c r="O217" s="13">
         <v>1100</v>
       </c>
-      <c r="P217" s="13"/>
+      <c r="P217" s="13">
+        <v>100</v>
+      </c>
       <c r="Q217" s="13">
         <v>29</v>
       </c>
@@ -10783,7 +9870,7 @@
         <v>1000</v>
       </c>
       <c r="B218" s="14" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="C218" s="14">
         <v>1</v>
@@ -10815,7 +9902,7 @@
         <v>1001</v>
       </c>
       <c r="B219" s="14" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="C219" s="14">
         <v>21</v>
@@ -10847,7 +9934,7 @@
         <v>1002</v>
       </c>
       <c r="B220" s="14" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="C220" s="14">
         <v>41</v>
@@ -10879,7 +9966,7 @@
         <v>1003</v>
       </c>
       <c r="B221" s="14" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="C221" s="14">
         <v>61</v>
@@ -10911,7 +9998,7 @@
         <v>1004</v>
       </c>
       <c r="B222" s="14" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="C222" s="14">
         <v>81</v>
@@ -10943,7 +10030,7 @@
         <v>1005</v>
       </c>
       <c r="B223" s="14" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C223" s="14">
         <v>101</v>
@@ -10975,7 +10062,7 @@
         <v>2000</v>
       </c>
       <c r="B224" s="14" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="C224" s="14">
         <v>1</v>
@@ -11007,7 +10094,7 @@
         <v>2001</v>
       </c>
       <c r="B225" s="14" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C225" s="14">
         <v>21</v>
@@ -11039,7 +10126,7 @@
         <v>2002</v>
       </c>
       <c r="B226" s="14" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="C226" s="14">
         <v>41</v>
@@ -11071,7 +10158,7 @@
         <v>2003</v>
       </c>
       <c r="B227" s="14" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="C227" s="14">
         <v>61</v>
@@ -11103,7 +10190,7 @@
         <v>2004</v>
       </c>
       <c r="B228" s="14" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C228" s="14">
         <v>81</v>
@@ -11135,7 +10222,7 @@
         <v>2005</v>
       </c>
       <c r="B229" s="14" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C229" s="14">
         <v>101</v>
@@ -11167,7 +10254,7 @@
         <v>3000</v>
       </c>
       <c r="B230" s="14" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C230" s="14">
         <v>1</v>
@@ -11199,7 +10286,7 @@
         <v>3001</v>
       </c>
       <c r="B231" s="14" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C231" s="14">
         <v>21</v>
@@ -11231,7 +10318,7 @@
         <v>3002</v>
       </c>
       <c r="B232" s="14" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="C232" s="14">
         <v>41</v>
@@ -11263,7 +10350,7 @@
         <v>3003</v>
       </c>
       <c r="B233" s="14" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="C233" s="14">
         <v>61</v>
@@ -11295,7 +10382,7 @@
         <v>3004</v>
       </c>
       <c r="B234" s="14" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="C234" s="14">
         <v>81</v>
@@ -11327,7 +10414,7 @@
         <v>3005</v>
       </c>
       <c r="B235" s="14" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C235" s="14">
         <v>101</v>
@@ -11359,7 +10446,7 @@
         <v>11000</v>
       </c>
       <c r="B236" s="14" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="C236" s="14">
         <v>2</v>
@@ -11397,7 +10484,7 @@
         <v>11001</v>
       </c>
       <c r="B237" s="14" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="C237" s="14">
         <v>22</v>
@@ -11435,7 +10522,7 @@
         <v>11002</v>
       </c>
       <c r="B238" s="14" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="C238" s="14">
         <v>42</v>
@@ -11473,7 +10560,7 @@
         <v>11003</v>
       </c>
       <c r="B239" s="14" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="C239" s="14">
         <v>62</v>
@@ -11511,7 +10598,7 @@
         <v>11004</v>
       </c>
       <c r="B240" s="14" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="C240" s="14">
         <v>82</v>
@@ -11549,7 +10636,7 @@
         <v>11005</v>
       </c>
       <c r="B241" s="14" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C241" s="14">
         <v>102</v>
@@ -11587,7 +10674,7 @@
         <v>12000</v>
       </c>
       <c r="B242" s="14" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C242" s="14">
         <v>3</v>
@@ -11628,7 +10715,7 @@
         <v>12001</v>
       </c>
       <c r="B243" s="14" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C243" s="14">
         <v>23</v>
@@ -11669,7 +10756,7 @@
         <v>12002</v>
       </c>
       <c r="B244" s="14" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C244" s="14">
         <v>43</v>
@@ -11710,7 +10797,7 @@
         <v>12003</v>
       </c>
       <c r="B245" s="14" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C245" s="14">
         <v>63</v>
@@ -11751,7 +10838,7 @@
         <v>12004</v>
       </c>
       <c r="B246" s="14" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C246" s="14">
         <v>83</v>
@@ -11792,7 +10879,7 @@
         <v>12005</v>
       </c>
       <c r="B247" s="14" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C247" s="14">
         <v>103</v>
@@ -11830,7 +10917,7 @@
         <v>13000</v>
       </c>
       <c r="B248" s="14" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C248" s="14">
         <v>4</v>
@@ -11868,7 +10955,7 @@
         <v>13001</v>
       </c>
       <c r="B249" s="14" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C249" s="14">
         <v>24</v>
@@ -11906,7 +10993,7 @@
         <v>13002</v>
       </c>
       <c r="B250" s="14" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C250" s="14">
         <v>44</v>
@@ -11944,7 +11031,7 @@
         <v>13003</v>
       </c>
       <c r="B251" s="14" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C251" s="14">
         <v>64</v>
@@ -11982,7 +11069,7 @@
         <v>13004</v>
       </c>
       <c r="B252" s="14" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C252" s="14">
         <v>84</v>
@@ -12020,7 +11107,7 @@
         <v>13005</v>
       </c>
       <c r="B253" s="14" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C253" s="14">
         <v>104</v>
@@ -12058,7 +11145,7 @@
         <v>14000</v>
       </c>
       <c r="B254" s="14" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="C254" s="14">
         <v>5</v>
@@ -12095,7 +11182,7 @@
         <v>14001</v>
       </c>
       <c r="B255" s="14" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C255" s="14">
         <v>25</v>
@@ -12132,7 +11219,7 @@
         <v>14002</v>
       </c>
       <c r="B256" s="14" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C256" s="14">
         <v>45</v>
@@ -12169,7 +11256,7 @@
         <v>14003</v>
       </c>
       <c r="B257" s="14" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C257" s="14">
         <v>65</v>
@@ -12206,7 +11293,7 @@
         <v>14004</v>
       </c>
       <c r="B258" s="14" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C258" s="14">
         <v>85</v>
@@ -12243,7 +11330,7 @@
         <v>14005</v>
       </c>
       <c r="B259" s="14" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C259" s="14">
         <v>105</v>
@@ -12278,7 +11365,7 @@
         <v>15000</v>
       </c>
       <c r="B260" s="14" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C260" s="14">
         <v>6</v>
@@ -12315,7 +11402,7 @@
         <v>15001</v>
       </c>
       <c r="B261" s="14" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="C261" s="14">
         <v>26</v>
@@ -12352,7 +11439,7 @@
         <v>15002</v>
       </c>
       <c r="B262" s="14" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C262" s="14">
         <v>46</v>
@@ -12389,7 +11476,7 @@
         <v>15003</v>
       </c>
       <c r="B263" s="14" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="C263" s="14">
         <v>66</v>
@@ -12426,7 +11513,7 @@
         <v>15004</v>
       </c>
       <c r="B264" s="14" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C264" s="14">
         <v>86</v>
@@ -12463,7 +11550,7 @@
         <v>15005</v>
       </c>
       <c r="B265" s="14" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C265" s="14">
         <v>106</v>
@@ -12498,7 +11585,7 @@
         <v>16000</v>
       </c>
       <c r="B266" s="14" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C266" s="14">
         <v>7</v>
@@ -12519,7 +11606,9 @@
       <c r="O266" s="14">
         <v>200</v>
       </c>
-      <c r="P266" s="14"/>
+      <c r="P266" s="14">
+        <v>100</v>
+      </c>
       <c r="Q266" s="14">
         <v>5</v>
       </c>
@@ -12533,7 +11622,7 @@
         <v>16001</v>
       </c>
       <c r="B267" s="14" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="C267" s="14">
         <v>27</v>
@@ -12554,7 +11643,9 @@
       <c r="O267" s="14">
         <v>500</v>
       </c>
-      <c r="P267" s="14"/>
+      <c r="P267" s="14">
+        <v>100</v>
+      </c>
       <c r="Q267" s="14">
         <v>10</v>
       </c>
@@ -12568,7 +11659,7 @@
         <v>16002</v>
       </c>
       <c r="B268" s="14" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="C268" s="14">
         <v>47</v>
@@ -12589,7 +11680,9 @@
       <c r="O268" s="14">
         <v>700</v>
       </c>
-      <c r="P268" s="14"/>
+      <c r="P268" s="14">
+        <v>100</v>
+      </c>
       <c r="Q268" s="14">
         <v>15</v>
       </c>
@@ -12603,7 +11696,7 @@
         <v>16003</v>
       </c>
       <c r="B269" s="14" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C269" s="14">
         <v>67</v>
@@ -12624,7 +11717,9 @@
       <c r="O269" s="14">
         <v>1000</v>
       </c>
-      <c r="P269" s="14"/>
+      <c r="P269" s="14">
+        <v>100</v>
+      </c>
       <c r="Q269" s="14">
         <v>20</v>
       </c>
@@ -12638,7 +11733,7 @@
         <v>16004</v>
       </c>
       <c r="B270" s="14" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C270" s="14">
         <v>87</v>
@@ -12659,7 +11754,9 @@
       <c r="O270" s="14">
         <v>1000</v>
       </c>
-      <c r="P270" s="14"/>
+      <c r="P270" s="14">
+        <v>100</v>
+      </c>
       <c r="Q270" s="14">
         <v>25</v>
       </c>
@@ -12673,7 +11770,7 @@
         <v>16005</v>
       </c>
       <c r="B271" s="14" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="C271" s="14">
         <v>107</v>
@@ -12694,7 +11791,9 @@
       <c r="O271" s="14">
         <v>1100</v>
       </c>
-      <c r="P271" s="14"/>
+      <c r="P271" s="14">
+        <v>100</v>
+      </c>
       <c r="Q271" s="14">
         <v>30</v>
       </c>
@@ -12706,667 +11805,667 @@
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="R2:R55 H8:H37 K8:M55">
-    <cfRule type="cellIs" dxfId="268" priority="134" operator="equal">
+    <cfRule type="cellIs" dxfId="132" priority="134" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B2:C55 H2:H37 K2:M37">
-    <cfRule type="cellIs" dxfId="266" priority="133" operator="equal">
+    <cfRule type="cellIs" dxfId="131" priority="133" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H38:H55">
-    <cfRule type="cellIs" dxfId="264" priority="132" operator="equal">
+    <cfRule type="cellIs" dxfId="130" priority="132" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="R56:R109 H62:H91 K62:M109">
-    <cfRule type="cellIs" dxfId="262" priority="131" operator="equal">
+    <cfRule type="cellIs" dxfId="129" priority="131" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B56:C109 H56:H91 K56:M91">
-    <cfRule type="cellIs" dxfId="260" priority="130" operator="equal">
+    <cfRule type="cellIs" dxfId="128" priority="130" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="R110:R163 K116:M163">
-    <cfRule type="cellIs" dxfId="258" priority="129" operator="equal">
+    <cfRule type="cellIs" dxfId="127" priority="129" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B110:C163 K110:M145">
-    <cfRule type="cellIs" dxfId="256" priority="128" operator="equal">
+    <cfRule type="cellIs" dxfId="126" priority="128" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="R164:R217 H182:H199 K170:M217">
-    <cfRule type="cellIs" dxfId="254" priority="127" operator="equal">
+    <cfRule type="cellIs" dxfId="125" priority="127" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B164:C217 H182:H199 K164:M199">
-    <cfRule type="cellIs" dxfId="252" priority="126" operator="equal">
+    <cfRule type="cellIs" dxfId="124" priority="126" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H200:H217">
-    <cfRule type="cellIs" dxfId="250" priority="125" operator="equal">
+    <cfRule type="cellIs" dxfId="123" priority="125" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="R218:R271 H224:H253 K224:M271">
-    <cfRule type="cellIs" dxfId="248" priority="124" operator="equal">
+    <cfRule type="cellIs" dxfId="122" priority="124" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B218:C271 H218:H253 K218:M253">
-    <cfRule type="cellIs" dxfId="246" priority="123" operator="equal">
+    <cfRule type="cellIs" dxfId="121" priority="123" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H254:H271">
-    <cfRule type="cellIs" dxfId="244" priority="122" operator="equal">
+    <cfRule type="cellIs" dxfId="120" priority="122" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A2:A55">
-    <cfRule type="cellIs" dxfId="242" priority="121" operator="equal">
+    <cfRule type="cellIs" dxfId="119" priority="121" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A56:A271">
-    <cfRule type="cellIs" dxfId="240" priority="120" operator="equal">
+    <cfRule type="cellIs" dxfId="118" priority="120" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H92:H109">
-    <cfRule type="cellIs" dxfId="238" priority="119" operator="equal">
+    <cfRule type="cellIs" dxfId="117" priority="119" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H110:H121">
-    <cfRule type="cellIs" dxfId="236" priority="118" operator="equal">
+    <cfRule type="cellIs" dxfId="116" priority="118" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G8:G37">
-    <cfRule type="cellIs" dxfId="234" priority="117" operator="equal">
+    <cfRule type="cellIs" dxfId="115" priority="117" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G2:G37">
-    <cfRule type="cellIs" dxfId="232" priority="116" operator="equal">
+    <cfRule type="cellIs" dxfId="114" priority="116" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G38:G55">
-    <cfRule type="cellIs" dxfId="230" priority="115" operator="equal">
+    <cfRule type="cellIs" dxfId="113" priority="115" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G62:G91">
-    <cfRule type="cellIs" dxfId="228" priority="114" operator="equal">
+    <cfRule type="cellIs" dxfId="112" priority="114" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G56:G91">
-    <cfRule type="cellIs" dxfId="226" priority="113" operator="equal">
+    <cfRule type="cellIs" dxfId="111" priority="113" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G182:G199">
-    <cfRule type="cellIs" dxfId="224" priority="112" operator="equal">
+    <cfRule type="cellIs" dxfId="110" priority="112" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G182:G199">
-    <cfRule type="cellIs" dxfId="222" priority="111" operator="equal">
+    <cfRule type="cellIs" dxfId="109" priority="111" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G200:G217">
-    <cfRule type="cellIs" dxfId="220" priority="110" operator="equal">
+    <cfRule type="cellIs" dxfId="108" priority="110" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G224:G253">
-    <cfRule type="cellIs" dxfId="218" priority="109" operator="equal">
+    <cfRule type="cellIs" dxfId="107" priority="109" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G218:G253">
-    <cfRule type="cellIs" dxfId="216" priority="108" operator="equal">
+    <cfRule type="cellIs" dxfId="106" priority="108" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G254:G271">
-    <cfRule type="cellIs" dxfId="214" priority="107" operator="equal">
+    <cfRule type="cellIs" dxfId="105" priority="107" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G92:G109">
-    <cfRule type="cellIs" dxfId="212" priority="106" operator="equal">
+    <cfRule type="cellIs" dxfId="104" priority="106" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G110:G121">
-    <cfRule type="cellIs" dxfId="210" priority="105" operator="equal">
+    <cfRule type="cellIs" dxfId="103" priority="105" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G122:G145">
-    <cfRule type="cellIs" dxfId="208" priority="104" operator="equal">
+    <cfRule type="cellIs" dxfId="102" priority="104" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G122:G145">
-    <cfRule type="cellIs" dxfId="206" priority="103" operator="equal">
+    <cfRule type="cellIs" dxfId="101" priority="103" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G146:G151">
-    <cfRule type="cellIs" dxfId="204" priority="102" operator="equal">
+    <cfRule type="cellIs" dxfId="100" priority="102" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H122:H145">
-    <cfRule type="cellIs" dxfId="202" priority="101" operator="equal">
+    <cfRule type="cellIs" dxfId="99" priority="101" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H122:H145">
-    <cfRule type="cellIs" dxfId="200" priority="100" operator="equal">
+    <cfRule type="cellIs" dxfId="98" priority="100" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H146:H151">
-    <cfRule type="cellIs" dxfId="198" priority="99" operator="equal">
+    <cfRule type="cellIs" dxfId="97" priority="99" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G152:G175">
-    <cfRule type="cellIs" dxfId="196" priority="98" operator="equal">
+    <cfRule type="cellIs" dxfId="96" priority="98" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G152:G175">
-    <cfRule type="cellIs" dxfId="194" priority="97" operator="equal">
+    <cfRule type="cellIs" dxfId="95" priority="97" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G176:G181">
-    <cfRule type="cellIs" dxfId="192" priority="96" operator="equal">
+    <cfRule type="cellIs" dxfId="94" priority="96" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H152:H175">
-    <cfRule type="cellIs" dxfId="190" priority="95" operator="equal">
+    <cfRule type="cellIs" dxfId="93" priority="95" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H152:H175">
-    <cfRule type="cellIs" dxfId="188" priority="94" operator="equal">
+    <cfRule type="cellIs" dxfId="92" priority="94" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H176:H181">
-    <cfRule type="cellIs" dxfId="186" priority="93" operator="equal">
+    <cfRule type="cellIs" dxfId="91" priority="93" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I8:I37">
-    <cfRule type="cellIs" dxfId="184" priority="92" operator="equal">
+    <cfRule type="cellIs" dxfId="90" priority="92" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I2:I37">
-    <cfRule type="cellIs" dxfId="182" priority="91" operator="equal">
+    <cfRule type="cellIs" dxfId="89" priority="91" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I38:I55">
-    <cfRule type="cellIs" dxfId="180" priority="90" operator="equal">
+    <cfRule type="cellIs" dxfId="88" priority="90" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I62:I91">
-    <cfRule type="cellIs" dxfId="178" priority="89" operator="equal">
+    <cfRule type="cellIs" dxfId="87" priority="89" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I56:I91">
-    <cfRule type="cellIs" dxfId="176" priority="88" operator="equal">
+    <cfRule type="cellIs" dxfId="86" priority="88" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I182:I199">
-    <cfRule type="cellIs" dxfId="174" priority="87" operator="equal">
+    <cfRule type="cellIs" dxfId="85" priority="87" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I182:I199">
-    <cfRule type="cellIs" dxfId="172" priority="86" operator="equal">
+    <cfRule type="cellIs" dxfId="84" priority="86" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I200:I217">
-    <cfRule type="cellIs" dxfId="170" priority="85" operator="equal">
+    <cfRule type="cellIs" dxfId="83" priority="85" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I224:I253">
-    <cfRule type="cellIs" dxfId="168" priority="84" operator="equal">
+    <cfRule type="cellIs" dxfId="82" priority="84" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I218:I253">
-    <cfRule type="cellIs" dxfId="166" priority="83" operator="equal">
+    <cfRule type="cellIs" dxfId="81" priority="83" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I254:I271">
-    <cfRule type="cellIs" dxfId="164" priority="82" operator="equal">
+    <cfRule type="cellIs" dxfId="80" priority="82" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I92:I109">
-    <cfRule type="cellIs" dxfId="162" priority="81" operator="equal">
+    <cfRule type="cellIs" dxfId="79" priority="81" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I110:I121">
-    <cfRule type="cellIs" dxfId="160" priority="80" operator="equal">
+    <cfRule type="cellIs" dxfId="78" priority="80" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I122:I145">
-    <cfRule type="cellIs" dxfId="158" priority="79" operator="equal">
+    <cfRule type="cellIs" dxfId="77" priority="79" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I122:I145">
-    <cfRule type="cellIs" dxfId="156" priority="78" operator="equal">
+    <cfRule type="cellIs" dxfId="76" priority="78" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I146:I151">
-    <cfRule type="cellIs" dxfId="154" priority="77" operator="equal">
+    <cfRule type="cellIs" dxfId="75" priority="77" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I152:I175">
-    <cfRule type="cellIs" dxfId="152" priority="76" operator="equal">
+    <cfRule type="cellIs" dxfId="74" priority="76" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I152:I175">
-    <cfRule type="cellIs" dxfId="150" priority="75" operator="equal">
+    <cfRule type="cellIs" dxfId="73" priority="75" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I176:I181">
-    <cfRule type="cellIs" dxfId="148" priority="74" operator="equal">
+    <cfRule type="cellIs" dxfId="72" priority="74" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E8:F37">
-    <cfRule type="cellIs" dxfId="146" priority="73" operator="equal">
+    <cfRule type="cellIs" dxfId="71" priority="73" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E2:F37">
-    <cfRule type="cellIs" dxfId="144" priority="72" operator="equal">
+    <cfRule type="cellIs" dxfId="70" priority="72" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E38:F55">
-    <cfRule type="cellIs" dxfId="142" priority="71" operator="equal">
+    <cfRule type="cellIs" dxfId="69" priority="71" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E62:F91">
-    <cfRule type="cellIs" dxfId="140" priority="70" operator="equal">
+    <cfRule type="cellIs" dxfId="68" priority="70" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E56:F91">
-    <cfRule type="cellIs" dxfId="138" priority="69" operator="equal">
+    <cfRule type="cellIs" dxfId="67" priority="69" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E182:F199">
-    <cfRule type="cellIs" dxfId="136" priority="68" operator="equal">
+    <cfRule type="cellIs" dxfId="66" priority="68" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E182:F199">
-    <cfRule type="cellIs" dxfId="134" priority="67" operator="equal">
+    <cfRule type="cellIs" dxfId="65" priority="67" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E200:F217">
-    <cfRule type="cellIs" dxfId="132" priority="66" operator="equal">
+    <cfRule type="cellIs" dxfId="64" priority="66" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E224:F253">
-    <cfRule type="cellIs" dxfId="130" priority="65" operator="equal">
+    <cfRule type="cellIs" dxfId="63" priority="65" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E218:F253">
-    <cfRule type="cellIs" dxfId="128" priority="64" operator="equal">
+    <cfRule type="cellIs" dxfId="62" priority="64" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E254:F271">
-    <cfRule type="cellIs" dxfId="126" priority="63" operator="equal">
+    <cfRule type="cellIs" dxfId="61" priority="63" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E92:F109">
-    <cfRule type="cellIs" dxfId="124" priority="62" operator="equal">
+    <cfRule type="cellIs" dxfId="60" priority="62" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E110:F121">
-    <cfRule type="cellIs" dxfId="122" priority="61" operator="equal">
+    <cfRule type="cellIs" dxfId="59" priority="61" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E122:F145">
-    <cfRule type="cellIs" dxfId="120" priority="60" operator="equal">
+    <cfRule type="cellIs" dxfId="58" priority="60" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E122:F145">
-    <cfRule type="cellIs" dxfId="118" priority="59" operator="equal">
+    <cfRule type="cellIs" dxfId="57" priority="59" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E146:F151">
-    <cfRule type="cellIs" dxfId="116" priority="58" operator="equal">
+    <cfRule type="cellIs" dxfId="56" priority="58" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E152:F175">
-    <cfRule type="cellIs" dxfId="114" priority="57" operator="equal">
+    <cfRule type="cellIs" dxfId="55" priority="57" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E152:F175">
-    <cfRule type="cellIs" dxfId="112" priority="56" operator="equal">
+    <cfRule type="cellIs" dxfId="54" priority="56" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E176:F181">
-    <cfRule type="cellIs" dxfId="110" priority="55" operator="equal">
+    <cfRule type="cellIs" dxfId="53" priority="55" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N8:P55">
-    <cfRule type="cellIs" dxfId="108" priority="54" operator="equal">
+    <cfRule type="cellIs" dxfId="52" priority="54" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N2:P37">
-    <cfRule type="cellIs" dxfId="106" priority="53" operator="equal">
+    <cfRule type="cellIs" dxfId="51" priority="53" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N62:P109">
-    <cfRule type="cellIs" dxfId="104" priority="52" operator="equal">
+    <cfRule type="cellIs" dxfId="50" priority="52" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N56:P91">
-    <cfRule type="cellIs" dxfId="102" priority="51" operator="equal">
+    <cfRule type="cellIs" dxfId="49" priority="51" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N116:P163">
-    <cfRule type="cellIs" dxfId="100" priority="50" operator="equal">
+    <cfRule type="cellIs" dxfId="48" priority="50" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N110:P145">
-    <cfRule type="cellIs" dxfId="98" priority="49" operator="equal">
+    <cfRule type="cellIs" dxfId="47" priority="49" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N170:P217">
-    <cfRule type="cellIs" dxfId="96" priority="48" operator="equal">
+    <cfRule type="cellIs" dxfId="46" priority="48" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N164:P199">
-    <cfRule type="cellIs" dxfId="94" priority="47" operator="equal">
+    <cfRule type="cellIs" dxfId="45" priority="47" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N224:P271">
-    <cfRule type="cellIs" dxfId="92" priority="46" operator="equal">
+    <cfRule type="cellIs" dxfId="44" priority="46" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N218:P253 N254:N258">
-    <cfRule type="cellIs" dxfId="90" priority="45" operator="equal">
+    <cfRule type="cellIs" dxfId="43" priority="45" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Q8:Q55">
-    <cfRule type="cellIs" dxfId="88" priority="44" operator="equal">
+    <cfRule type="cellIs" dxfId="42" priority="44" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Q2:Q37">
-    <cfRule type="cellIs" dxfId="86" priority="43" operator="equal">
+    <cfRule type="cellIs" dxfId="41" priority="43" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Q62:Q109">
-    <cfRule type="cellIs" dxfId="84" priority="42" operator="equal">
+    <cfRule type="cellIs" dxfId="40" priority="42" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Q56:Q91">
-    <cfRule type="cellIs" dxfId="82" priority="41" operator="equal">
+    <cfRule type="cellIs" dxfId="39" priority="41" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Q116:Q163">
-    <cfRule type="cellIs" dxfId="80" priority="40" operator="equal">
+    <cfRule type="cellIs" dxfId="38" priority="40" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Q110:Q145">
-    <cfRule type="cellIs" dxfId="78" priority="39" operator="equal">
+    <cfRule type="cellIs" dxfId="37" priority="39" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Q170:Q217">
-    <cfRule type="cellIs" dxfId="76" priority="38" operator="equal">
+    <cfRule type="cellIs" dxfId="36" priority="38" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Q164:Q199">
-    <cfRule type="cellIs" dxfId="74" priority="37" operator="equal">
+    <cfRule type="cellIs" dxfId="35" priority="37" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Q224:Q271">
-    <cfRule type="cellIs" dxfId="72" priority="36" operator="equal">
+    <cfRule type="cellIs" dxfId="34" priority="36" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Q218:Q253">
-    <cfRule type="cellIs" dxfId="70" priority="35" operator="equal">
+    <cfRule type="cellIs" dxfId="33" priority="35" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J8:J55">
-    <cfRule type="cellIs" dxfId="68" priority="34" operator="equal">
+    <cfRule type="cellIs" dxfId="32" priority="34" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J2:J37">
-    <cfRule type="cellIs" dxfId="66" priority="33" operator="equal">
+    <cfRule type="cellIs" dxfId="31" priority="33" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J62:J109">
-    <cfRule type="cellIs" dxfId="64" priority="32" operator="equal">
+    <cfRule type="cellIs" dxfId="30" priority="32" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J56:J91">
-    <cfRule type="cellIs" dxfId="62" priority="31" operator="equal">
+    <cfRule type="cellIs" dxfId="29" priority="31" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J116:J163">
-    <cfRule type="cellIs" dxfId="60" priority="30" operator="equal">
+    <cfRule type="cellIs" dxfId="28" priority="30" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J110:J145">
-    <cfRule type="cellIs" dxfId="58" priority="29" operator="equal">
+    <cfRule type="cellIs" dxfId="27" priority="29" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J170:J217">
-    <cfRule type="cellIs" dxfId="56" priority="28" operator="equal">
+    <cfRule type="cellIs" dxfId="26" priority="28" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J164:J199">
-    <cfRule type="cellIs" dxfId="54" priority="27" operator="equal">
+    <cfRule type="cellIs" dxfId="25" priority="27" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J224:J271">
-    <cfRule type="cellIs" dxfId="52" priority="26" operator="equal">
+    <cfRule type="cellIs" dxfId="24" priority="26" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J218:J253">
-    <cfRule type="cellIs" dxfId="50" priority="25" operator="equal">
+    <cfRule type="cellIs" dxfId="23" priority="25" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D8:D37">
-    <cfRule type="cellIs" dxfId="48" priority="24" operator="equal">
+    <cfRule type="cellIs" dxfId="22" priority="24" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D2:D37">
-    <cfRule type="cellIs" dxfId="46" priority="23" operator="equal">
+    <cfRule type="cellIs" dxfId="21" priority="23" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D38:D55">
-    <cfRule type="cellIs" dxfId="44" priority="22" operator="equal">
+    <cfRule type="cellIs" dxfId="20" priority="22" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D62:D91">
-    <cfRule type="cellIs" dxfId="42" priority="21" operator="equal">
+    <cfRule type="cellIs" dxfId="19" priority="21" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D56:D91">
-    <cfRule type="cellIs" dxfId="40" priority="20" operator="equal">
+    <cfRule type="cellIs" dxfId="18" priority="20" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D182:D199">
-    <cfRule type="cellIs" dxfId="38" priority="19" operator="equal">
+    <cfRule type="cellIs" dxfId="17" priority="19" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D182:D199">
-    <cfRule type="cellIs" dxfId="36" priority="18" operator="equal">
+    <cfRule type="cellIs" dxfId="16" priority="18" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D200:D217">
-    <cfRule type="cellIs" dxfId="34" priority="17" operator="equal">
+    <cfRule type="cellIs" dxfId="15" priority="17" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D224:D253">
-    <cfRule type="cellIs" dxfId="32" priority="16" operator="equal">
+    <cfRule type="cellIs" dxfId="14" priority="16" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D218:D253">
-    <cfRule type="cellIs" dxfId="30" priority="15" operator="equal">
+    <cfRule type="cellIs" dxfId="13" priority="15" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D254:D271">
-    <cfRule type="cellIs" dxfId="28" priority="14" operator="equal">
+    <cfRule type="cellIs" dxfId="12" priority="14" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D92:D109">
-    <cfRule type="cellIs" dxfId="26" priority="13" operator="equal">
+    <cfRule type="cellIs" dxfId="11" priority="13" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D110:D121">
-    <cfRule type="cellIs" dxfId="24" priority="12" operator="equal">
+    <cfRule type="cellIs" dxfId="10" priority="12" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D122:D145">
-    <cfRule type="cellIs" dxfId="22" priority="11" operator="equal">
+    <cfRule type="cellIs" dxfId="9" priority="11" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D122:D145">
-    <cfRule type="cellIs" dxfId="20" priority="10" operator="equal">
+    <cfRule type="cellIs" dxfId="8" priority="10" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D146:D151">
-    <cfRule type="cellIs" dxfId="18" priority="9" operator="equal">
+    <cfRule type="cellIs" dxfId="7" priority="9" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D152:D175">
-    <cfRule type="cellIs" dxfId="16" priority="8" operator="equal">
+    <cfRule type="cellIs" dxfId="6" priority="8" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D152:D175">
-    <cfRule type="cellIs" dxfId="14" priority="7" operator="equal">
+    <cfRule type="cellIs" dxfId="5" priority="7" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D176:D181">
-    <cfRule type="cellIs" dxfId="12" priority="6" operator="equal">
+    <cfRule type="cellIs" dxfId="4" priority="6" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="S2:S55">
-    <cfRule type="cellIs" dxfId="10" priority="5" operator="equal">
+    <cfRule type="cellIs" dxfId="3" priority="5" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="S56:S109">
-    <cfRule type="cellIs" dxfId="8" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="2" priority="4" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="S110:S163">
-    <cfRule type="cellIs" dxfId="6" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="1" priority="3" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="S164:S271">
-    <cfRule type="cellIs" dxfId="4" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="0" priority="2" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>

--- a/doc/table/装备基础表.xlsx
+++ b/doc/table/装备基础表.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="-15" yWindow="-15" windowWidth="25260" windowHeight="6030"/>
@@ -11,7 +11,7 @@
     <sheet name="道具类型" sheetId="4" r:id="rId2"/>
     <sheet name="字段说明" sheetId="2" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="145621"/>
 </workbook>
 </file>
 
@@ -494,31 +494,31 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>装备等级</t>
+    <t>致命</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>龙泉剑</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>天残护腕</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>反伤</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>需求等级</t>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
-    <t>致命</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>速度</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>品质系数</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>龙泉剑</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>天残护腕</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>反伤</t>
+    <t>移动速度</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -862,7 +862,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题​​">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -904,7 +904,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -939,7 +939,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1151,8 +1151,8 @@
   <dimension ref="A1:S55"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A38" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G50" sqref="G50"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="Q1" sqref="Q1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1173,7 +1173,7 @@
         <v>1</v>
       </c>
       <c r="C1" s="11" t="s">
-        <v>124</v>
+        <v>128</v>
       </c>
       <c r="D1" s="10" t="s">
         <v>117</v>
@@ -1197,7 +1197,7 @@
         <v>61</v>
       </c>
       <c r="K1" s="10" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="L1" s="10" t="s">
         <v>73</v>
@@ -1212,13 +1212,13 @@
         <v>122</v>
       </c>
       <c r="P1" s="10" t="s">
+        <v>127</v>
+      </c>
+      <c r="Q1" s="10" t="s">
         <v>130</v>
       </c>
-      <c r="Q1" s="10" t="s">
-        <v>126</v>
-      </c>
       <c r="R1" s="11" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="S1" s="10" t="s">
         <v>123</v>
@@ -1677,7 +1677,7 @@
         <v>3002</v>
       </c>
       <c r="B16" s="10" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="C16" s="10">
         <v>41</v>
@@ -1957,7 +1957,7 @@
         <v>11004</v>
       </c>
       <c r="B24" s="10" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="C24" s="10">
         <v>82</v>

--- a/doc/table/装备基础表.xlsx
+++ b/doc/table/装备基础表.xlsx
@@ -315,10 +315,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>暴击</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>兽角枪</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -467,22 +463,6 @@
   </si>
   <si>
     <t>最大生命</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>物攻增加</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>魔攻增加</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>物防增加</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>魔防增加</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -519,6 +499,26 @@
   </si>
   <si>
     <t>移动速度</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>暴击</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>物攻</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>魔攻</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>物防</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>魔防</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1152,7 +1152,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="Q1" sqref="Q1"/>
+      <selection pane="bottomLeft" activeCell="H1" sqref="H1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1173,22 +1173,22 @@
         <v>1</v>
       </c>
       <c r="C1" s="11" t="s">
+        <v>123</v>
+      </c>
+      <c r="D1" s="10" t="s">
+        <v>116</v>
+      </c>
+      <c r="E1" s="10" t="s">
+        <v>127</v>
+      </c>
+      <c r="F1" s="10" t="s">
         <v>128</v>
       </c>
-      <c r="D1" s="10" t="s">
-        <v>117</v>
-      </c>
-      <c r="E1" s="10" t="s">
-        <v>118</v>
-      </c>
-      <c r="F1" s="10" t="s">
-        <v>119</v>
-      </c>
       <c r="G1" s="10" t="s">
-        <v>120</v>
+        <v>129</v>
       </c>
       <c r="H1" s="10" t="s">
-        <v>121</v>
+        <v>130</v>
       </c>
       <c r="I1" s="10" t="s">
         <v>60</v>
@@ -1197,10 +1197,10 @@
         <v>61</v>
       </c>
       <c r="K1" s="10" t="s">
-        <v>124</v>
+        <v>119</v>
       </c>
       <c r="L1" s="10" t="s">
-        <v>73</v>
+        <v>126</v>
       </c>
       <c r="M1" s="10" t="s">
         <v>62</v>
@@ -1209,19 +1209,19 @@
         <v>63</v>
       </c>
       <c r="O1" s="10" t="s">
+        <v>117</v>
+      </c>
+      <c r="P1" s="10" t="s">
         <v>122</v>
       </c>
-      <c r="P1" s="10" t="s">
-        <v>127</v>
-      </c>
       <c r="Q1" s="10" t="s">
-        <v>130</v>
+        <v>125</v>
       </c>
       <c r="R1" s="11" t="s">
-        <v>129</v>
+        <v>124</v>
       </c>
       <c r="S1" s="10" t="s">
-        <v>123</v>
+        <v>118</v>
       </c>
     </row>
     <row r="2" spans="1:19" ht="15.75" x14ac:dyDescent="0.3">
@@ -1229,7 +1229,7 @@
         <v>1000</v>
       </c>
       <c r="B2" s="10" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C2" s="10">
         <v>1</v>
@@ -1261,7 +1261,7 @@
         <v>1001</v>
       </c>
       <c r="B3" s="10" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C3" s="10">
         <v>21</v>
@@ -1293,7 +1293,7 @@
         <v>1002</v>
       </c>
       <c r="B4" s="10" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C4" s="10">
         <v>41</v>
@@ -1325,7 +1325,7 @@
         <v>1003</v>
       </c>
       <c r="B5" s="10" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C5" s="10">
         <v>61</v>
@@ -1357,7 +1357,7 @@
         <v>1004</v>
       </c>
       <c r="B6" s="10" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C6" s="10">
         <v>81</v>
@@ -1421,7 +1421,7 @@
         <v>2000</v>
       </c>
       <c r="B8" s="10" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C8" s="10">
         <v>1</v>
@@ -1453,7 +1453,7 @@
         <v>2001</v>
       </c>
       <c r="B9" s="10" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C9" s="10">
         <v>21</v>
@@ -1485,7 +1485,7 @@
         <v>2002</v>
       </c>
       <c r="B10" s="10" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C10" s="10">
         <v>41</v>
@@ -1517,7 +1517,7 @@
         <v>2003</v>
       </c>
       <c r="B11" s="10" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C11" s="10">
         <v>61</v>
@@ -1549,7 +1549,7 @@
         <v>2004</v>
       </c>
       <c r="B12" s="10" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C12" s="10">
         <v>81</v>
@@ -1613,7 +1613,7 @@
         <v>3000</v>
       </c>
       <c r="B14" s="10" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C14" s="10">
         <v>1</v>
@@ -1645,7 +1645,7 @@
         <v>3001</v>
       </c>
       <c r="B15" s="10" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C15" s="10">
         <v>21</v>
@@ -1677,7 +1677,7 @@
         <v>3002</v>
       </c>
       <c r="B16" s="10" t="s">
-        <v>125</v>
+        <v>120</v>
       </c>
       <c r="C16" s="10">
         <v>41</v>
@@ -1709,7 +1709,7 @@
         <v>3003</v>
       </c>
       <c r="B17" s="10" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C17" s="10">
         <v>61</v>
@@ -1741,7 +1741,7 @@
         <v>3004</v>
       </c>
       <c r="B18" s="10" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C18" s="10">
         <v>81</v>
@@ -1805,7 +1805,7 @@
         <v>11000</v>
       </c>
       <c r="B20" s="10" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C20" s="10">
         <v>2</v>
@@ -1843,7 +1843,7 @@
         <v>11001</v>
       </c>
       <c r="B21" s="10" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C21" s="10">
         <v>22</v>
@@ -1881,7 +1881,7 @@
         <v>11002</v>
       </c>
       <c r="B22" s="10" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C22" s="10">
         <v>42</v>
@@ -1919,7 +1919,7 @@
         <v>11003</v>
       </c>
       <c r="B23" s="10" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C23" s="10">
         <v>62</v>
@@ -1957,7 +1957,7 @@
         <v>11004</v>
       </c>
       <c r="B24" s="10" t="s">
-        <v>126</v>
+        <v>121</v>
       </c>
       <c r="C24" s="10">
         <v>82</v>
@@ -2033,7 +2033,7 @@
         <v>12000</v>
       </c>
       <c r="B26" s="10" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C26" s="10">
         <v>3</v>
@@ -2074,7 +2074,7 @@
         <v>12001</v>
       </c>
       <c r="B27" s="10" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C27" s="10">
         <v>23</v>
@@ -2115,7 +2115,7 @@
         <v>12002</v>
       </c>
       <c r="B28" s="10" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C28" s="10">
         <v>43</v>
@@ -2156,7 +2156,7 @@
         <v>12003</v>
       </c>
       <c r="B29" s="10" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C29" s="10">
         <v>63</v>
@@ -2197,7 +2197,7 @@
         <v>12004</v>
       </c>
       <c r="B30" s="10" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C30" s="10">
         <v>83</v>
@@ -2276,7 +2276,7 @@
         <v>13000</v>
       </c>
       <c r="B32" s="10" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C32" s="10">
         <v>4</v>
@@ -2314,7 +2314,7 @@
         <v>13001</v>
       </c>
       <c r="B33" s="10" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C33" s="10">
         <v>24</v>
@@ -2352,7 +2352,7 @@
         <v>13002</v>
       </c>
       <c r="B34" s="10" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C34" s="10">
         <v>44</v>
@@ -2390,7 +2390,7 @@
         <v>13003</v>
       </c>
       <c r="B35" s="10" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C35" s="10">
         <v>64</v>
@@ -2428,7 +2428,7 @@
         <v>13004</v>
       </c>
       <c r="B36" s="10" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C36" s="10">
         <v>84</v>
@@ -2504,7 +2504,7 @@
         <v>14000</v>
       </c>
       <c r="B38" s="10" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C38" s="10">
         <v>5</v>
@@ -2541,7 +2541,7 @@
         <v>14001</v>
       </c>
       <c r="B39" s="10" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="C39" s="10">
         <v>25</v>
@@ -2578,7 +2578,7 @@
         <v>14002</v>
       </c>
       <c r="B40" s="10" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C40" s="10">
         <v>45</v>
@@ -2615,7 +2615,7 @@
         <v>14003</v>
       </c>
       <c r="B41" s="10" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C41" s="10">
         <v>65</v>
@@ -2652,7 +2652,7 @@
         <v>14004</v>
       </c>
       <c r="B42" s="10" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C42" s="10">
         <v>85</v>
@@ -2724,7 +2724,7 @@
         <v>15000</v>
       </c>
       <c r="B44" s="10" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C44" s="10">
         <v>6</v>
@@ -2761,7 +2761,7 @@
         <v>15001</v>
       </c>
       <c r="B45" s="10" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C45" s="10">
         <v>26</v>
@@ -2798,7 +2798,7 @@
         <v>15002</v>
       </c>
       <c r="B46" s="10" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="C46" s="10">
         <v>46</v>
@@ -2835,7 +2835,7 @@
         <v>15003</v>
       </c>
       <c r="B47" s="10" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C47" s="10">
         <v>66</v>
@@ -2872,7 +2872,7 @@
         <v>15004</v>
       </c>
       <c r="B48" s="10" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="C48" s="10">
         <v>86</v>
@@ -2944,7 +2944,7 @@
         <v>16000</v>
       </c>
       <c r="B50" s="10" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C50" s="10">
         <v>7</v>
@@ -2979,7 +2979,7 @@
         <v>16001</v>
       </c>
       <c r="B51" s="10" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C51" s="10">
         <v>27</v>
@@ -3016,7 +3016,7 @@
         <v>16002</v>
       </c>
       <c r="B52" s="10" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="C52" s="10">
         <v>47</v>
@@ -3053,7 +3053,7 @@
         <v>16003</v>
       </c>
       <c r="B53" s="10" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="C53" s="10">
         <v>67</v>
@@ -3090,7 +3090,7 @@
         <v>16004</v>
       </c>
       <c r="B54" s="10" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C54" s="10">
         <v>87</v>
